--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_2_27.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_2_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1953183.01716227</v>
+        <v>1921990.135681209</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6165603.330802533</v>
+        <v>6165603.330802538</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>287.6356311361163</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -673,10 +673,10 @@
         <v>10.00967878293136</v>
       </c>
       <c r="G2" t="n">
-        <v>11.94294668035388</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H2" t="n">
-        <v>13.88908314418412</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>171.0890268032919</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
         <v>389.6064368699203</v>
@@ -740,7 +740,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D3" t="n">
         <v>137.45025063969</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>216.3098444776729</v>
+        <v>158.7034744856297</v>
       </c>
       <c r="V3" t="n">
-        <v>127.2735794774789</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W3" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y3" t="n">
         <v>190.5961130869169</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>167.1394242513582</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.884457866842999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>10.00967878293136</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G5" t="n">
-        <v>99.36495471764873</v>
+        <v>11.94294668035388</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>60.10582237971181</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S5" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64.0946657902582</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D6" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G6" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H6" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S6" t="n">
-        <v>151.2714921173871</v>
+        <v>0.4961429715770191</v>
       </c>
       <c r="T6" t="n">
         <v>186.7982527956746</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>19.32603537798744</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>191.5882918047081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>10.00967878293136</v>
       </c>
       <c r="G8" t="n">
-        <v>11.94294668035388</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>35.79391863867546</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>185.3566856159496</v>
+        <v>122.4896270017367</v>
       </c>
       <c r="T8" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V8" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.15737841164544</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
         <v>160.0866360314548</v>
@@ -1220,7 +1220,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F9" t="n">
         <v>133.3468600696244</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>151.2714921173871</v>
+        <v>109.0305713435654</v>
       </c>
       <c r="T9" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>216.3098444776729</v>
@@ -1302,16 +1302,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>75.18976453185348</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>14.50387586212028</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D11" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>325.5814052293737</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>62.3218348259802</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X11" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y11" t="n">
-        <v>181.6280301125431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>96.9647737324037</v>
       </c>
       <c r="I12" t="n">
-        <v>60.66232013214973</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>124.8390672247517</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U13" t="n">
         <v>284.3089918374816</v>
       </c>
       <c r="V13" t="n">
-        <v>258.1279513971616</v>
+        <v>152.851901770346</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1609,16 +1609,16 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C14" t="n">
-        <v>141.7571295937851</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>390.8378626949542</v>
+        <v>109.1446435894251</v>
       </c>
       <c r="F14" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1654,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S14" t="n">
         <v>176.6529755334452</v>
@@ -1675,7 +1675,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="15">
@@ -1809,7 +1809,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.80540818138466</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>194.7158555947865</v>
+        <v>154.0270791583353</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y16" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E17" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
-        <v>411.5609956070679</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>192.2960751268664</v>
+        <v>181.7464290274894</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y17" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>34.05723091947836</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>140.32293915197</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>208.5868485504649</v>
+        <v>153.8660561400527</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U19" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G20" t="n">
-        <v>308.5889506748003</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>325.5814052293737</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.73916953180444</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>176.6529755334452</v>
       </c>
       <c r="T20" t="n">
-        <v>220.4433659829895</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>252.305926837283</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>389.6064368699203</v>
+        <v>27.90128210331073</v>
       </c>
     </row>
     <row r="21">
@@ -2283,16 +2283,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>23.80540818138466</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>140.32293915197</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>208.5868485504649</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>155.0412335280421</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,13 +2301,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
         <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>65.62087511199729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2320,25 +2320,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
-        <v>410.7953871538391</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>109.051026674848</v>
       </c>
       <c r="I23" t="n">
-        <v>126.8477381573318</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,22 +2365,22 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>17.64651753167261</v>
+        <v>17.64651753167263</v>
       </c>
       <c r="S23" t="n">
-        <v>159.2066729054945</v>
+        <v>159.2066729054946</v>
       </c>
       <c r="T23" t="n">
-        <v>217.0919149789806</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>252.2446781610247</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W23" t="n">
-        <v>259.2911332121725</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>378.2098390737216</v>
@@ -2417,7 +2417,7 @@
         <v>93.00854622075344</v>
       </c>
       <c r="I24" t="n">
-        <v>46.55860261786523</v>
+        <v>46.55860261786524</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>21.06466113568248</v>
+        <v>21.06466113568249</v>
       </c>
       <c r="S24" t="n">
         <v>139.8667397074436</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>124.8812755756538</v>
       </c>
       <c r="S25" t="n">
-        <v>202.601877043025</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>284.290259532294</v>
+        <v>238.6138498464105</v>
       </c>
       <c r="V25" t="n">
         <v>258.1279513971616</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>208.811727940576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>158.0361141060629</v>
       </c>
       <c r="C26" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2602,10 +2602,10 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>17.64651753167263</v>
       </c>
       <c r="S26" t="n">
-        <v>159.2066729054945</v>
+        <v>159.2066729054946</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
-        <v>187.1746474271354</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>93.00854622075344</v>
       </c>
       <c r="I27" t="n">
-        <v>46.55860261786523</v>
+        <v>46.55860261786524</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>21.06466113568248</v>
+        <v>21.06466113568249</v>
       </c>
       <c r="S27" t="n">
         <v>139.8667397074436</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.7157954483816</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>68.575075040125</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>124.8812755756538</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>284.290259532294</v>
       </c>
       <c r="V28" t="n">
-        <v>41.55063611768834</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>283.2948374677749</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,7 +2797,7 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
-        <v>41.16868792346632</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>390.8378626949542</v>
@@ -2809,10 +2809,10 @@
         <v>410.7953871538391</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>218.904455605268</v>
       </c>
       <c r="I29" t="n">
-        <v>126.8477381573318</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>17.64651753167261</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>159.2066729054945</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>252.2446781610247</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,7 +2857,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
         <v>389.6064368699203</v>
@@ -2891,7 +2891,7 @@
         <v>93.00854622075344</v>
       </c>
       <c r="I30" t="n">
-        <v>46.55860261786523</v>
+        <v>46.55860261786524</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>21.06466113568248</v>
+        <v>21.06466113568249</v>
       </c>
       <c r="S30" t="n">
         <v>139.8667397074436</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.7157954483816</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>45.23806852359765</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>124.8812755756538</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>202.601877043025</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>228.6477529452049</v>
@@ -3009,13 +3009,13 @@
         <v>284.290259532294</v>
       </c>
       <c r="V31" t="n">
-        <v>113.4106508168789</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3034,19 +3034,19 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.7953871538391</v>
       </c>
       <c r="H32" t="n">
-        <v>317.7406176577446</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,19 +3076,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>17.64651753167261</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>159.2066729054945</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.0919149789806</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>252.2446781610247</v>
+        <v>240.6465931751734</v>
       </c>
       <c r="V32" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>358.909580840975</v>
@@ -3097,7 +3097,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
-        <v>131.7760758140241</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>93.00854622075344</v>
       </c>
       <c r="I33" t="n">
-        <v>46.55860261786523</v>
+        <v>46.55860261786524</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>21.06466113568248</v>
+        <v>21.06466113568249</v>
       </c>
       <c r="S33" t="n">
         <v>139.8667397074436</v>
@@ -3189,19 +3189,19 @@
         <v>181.719814997536</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>22.16145046968647</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1.046037040860106</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>202.601877043025</v>
       </c>
       <c r="T34" t="n">
-        <v>228.6477529452049</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>284.290259532294</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E35" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.7953871538391</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>317.7406176577446</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>17.64651753167261</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>159.2066729054945</v>
+        <v>159.2066729054946</v>
       </c>
       <c r="T35" t="n">
         <v>217.0919149789806</v>
@@ -3328,13 +3328,13 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
-        <v>17.92427260856447</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y35" t="n">
-        <v>389.6064368699203</v>
+        <v>118.5771901821909</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>93.00854622075344</v>
       </c>
       <c r="I36" t="n">
-        <v>46.55860261786523</v>
+        <v>46.55860261786524</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>21.06466113568248</v>
+        <v>21.06466113568249</v>
       </c>
       <c r="S36" t="n">
         <v>139.8667397074436</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>202.601877043025</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>228.6477529452049</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>284.290259532294</v>
       </c>
       <c r="V37" t="n">
-        <v>238.2919263925328</v>
+        <v>218.3269090700508</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
         <v>410.7953871538391</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>17.64651753167261</v>
+        <v>17.64651753167263</v>
       </c>
       <c r="S38" t="n">
-        <v>159.2066729054945</v>
+        <v>90.830925774565</v>
       </c>
       <c r="T38" t="n">
         <v>217.0919149789806</v>
@@ -3562,13 +3562,13 @@
         <v>252.2446781610247</v>
       </c>
       <c r="V38" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>48.33208751952066</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y38" t="n">
         <v>389.6064368699203</v>
@@ -3602,7 +3602,7 @@
         <v>93.00854622075344</v>
       </c>
       <c r="I39" t="n">
-        <v>46.55860261786523</v>
+        <v>46.55860261786524</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>21.06466113568248</v>
+        <v>21.06466113568249</v>
       </c>
       <c r="S39" t="n">
         <v>139.8667397074436</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3672,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.7157954483816</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>83.91867015669649</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,22 +3708,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>124.8812755756538</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>202.601877043025</v>
       </c>
       <c r="T40" t="n">
-        <v>228.6477529452049</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>114.4060728813981</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3742,25 +3742,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D41" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
         <v>410.7953871538391</v>
       </c>
       <c r="H41" t="n">
-        <v>317.7406176577446</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>126.8477381573318</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,22 +3787,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>17.64651753167261</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>159.2066729054945</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.0919149789806</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>190.2372318074018</v>
+        <v>208.7183113211941</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>378.2098390737216</v>
@@ -3839,7 +3839,7 @@
         <v>93.00854622075344</v>
       </c>
       <c r="I42" t="n">
-        <v>46.55860261786523</v>
+        <v>46.55860261786525</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>21.06466113568248</v>
+        <v>21.0646611356825</v>
       </c>
       <c r="S42" t="n">
         <v>139.8667397074436</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>22.22807094151678</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.7157954483816</v>
@@ -3951,19 +3951,19 @@
         <v>202.601877043025</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>202.3719312995805</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,25 +3979,25 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D44" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
-        <v>107.5293983251661</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>410.7953871538391</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>317.7406176577446</v>
+        <v>81.21460925118215</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>126.8477381573318</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>17.64651753167261</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>159.2066729054946</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,10 +4036,10 @@
         <v>252.2446781610247</v>
       </c>
       <c r="V44" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>378.2098390737216</v>
@@ -4076,7 +4076,7 @@
         <v>93.00854622075344</v>
       </c>
       <c r="I45" t="n">
-        <v>46.55860261786523</v>
+        <v>46.55860261786525</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>21.06466113568248</v>
+        <v>21.0646611356825</v>
       </c>
       <c r="S45" t="n">
         <v>139.8667397074436</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.33313997985</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>153.2022726584912</v>
       </c>
       <c r="I46" t="n">
-        <v>127.2809062519456</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>124.8812755756538</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>202.601877043025</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4197,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>214.8376831217947</v>
       </c>
       <c r="Y46" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>251.0452009605541</v>
+        <v>931.5972696392735</v>
       </c>
       <c r="C2" t="n">
-        <v>251.0452009605541</v>
+        <v>641.0562280876408</v>
       </c>
       <c r="D2" t="n">
-        <v>251.0452009605541</v>
+        <v>641.0562280876408</v>
       </c>
       <c r="E2" t="n">
-        <v>251.0452009605541</v>
+        <v>641.0562280876408</v>
       </c>
       <c r="F2" t="n">
-        <v>240.9344143111285</v>
+        <v>630.9454414382152</v>
       </c>
       <c r="G2" t="n">
-        <v>228.8708318057205</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="H2" t="n">
         <v>214.8414548924032</v>
@@ -4354,28 +4354,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R2" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S2" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T2" t="n">
-        <v>1598.98659691718</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U2" t="n">
-        <v>1344.101260631174</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V2" t="n">
-        <v>1007.121986527115</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W2" t="n">
-        <v>644.5870563847161</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X2" t="n">
-        <v>644.5870563847161</v>
+        <v>1719.182664581455</v>
       </c>
       <c r="Y2" t="n">
-        <v>251.0452009605541</v>
+        <v>1325.640809157293</v>
       </c>
     </row>
     <row r="3">
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>759.6333438441981</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C3" t="n">
         <v>759.6333438441981</v>
@@ -4409,52 +4409,52 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J3" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K3" t="n">
-        <v>331.768955194494</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L3" t="n">
-        <v>697.5908003646097</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M3" t="n">
-        <v>737.8796590913968</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N3" t="n">
-        <v>1249.145305214519</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O3" t="n">
-        <v>1641.34525599867</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P3" t="n">
-        <v>1943.441175274367</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q3" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R3" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S3" t="n">
-        <v>1888.629049167647</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T3" t="n">
-        <v>1699.943945333632</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U3" t="n">
-        <v>1481.449152931943</v>
+        <v>1940.906265175487</v>
       </c>
       <c r="V3" t="n">
-        <v>1352.88998174257</v>
+        <v>1712.510642623821</v>
       </c>
       <c r="W3" t="n">
-        <v>1111.57411297588</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X3" t="n">
-        <v>1111.57411297588</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y3" t="n">
-        <v>919.052786625459</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194.5049110754221</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C4" t="n">
-        <v>194.5049110754221</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D4" t="n">
-        <v>194.5049110754221</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E4" t="n">
-        <v>194.5049110754221</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F4" t="n">
         <v>42.02425610119923</v>
@@ -4509,31 +4509,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q4" t="n">
-        <v>535.5461600008207</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R4" t="n">
-        <v>386.0243786151989</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="S4" t="n">
-        <v>386.0243786151989</v>
+        <v>210.8519573651974</v>
       </c>
       <c r="T4" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="U4" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V4" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W4" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X4" t="n">
-        <v>386.0243786151989</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y4" t="n">
-        <v>378.0602797598019</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="5">
@@ -4543,40 +4543,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>152.503683879563</v>
+        <v>1616.530979037796</v>
       </c>
       <c r="C5" t="n">
-        <v>152.503683879563</v>
+        <v>1234.597220370603</v>
       </c>
       <c r="D5" t="n">
-        <v>152.503683879563</v>
+        <v>861.7732555978264</v>
       </c>
       <c r="E5" t="n">
-        <v>152.503683879563</v>
+        <v>861.7732555978264</v>
       </c>
       <c r="F5" t="n">
-        <v>142.3928972301374</v>
+        <v>447.6220649079967</v>
       </c>
       <c r="G5" t="n">
-        <v>42.02425610119923</v>
+        <v>435.5584824025888</v>
       </c>
       <c r="H5" t="n">
-        <v>42.02425610119923</v>
+        <v>102.737207999898</v>
       </c>
       <c r="I5" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J5" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740045</v>
       </c>
       <c r="K5" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L5" t="n">
-        <v>702.048545503734</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M5" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N5" t="n">
         <v>1473.619070444537</v>
@@ -4591,28 +4591,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R5" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S5" t="n">
-        <v>1913.983829690315</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T5" t="n">
-        <v>1913.983829690315</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U5" t="n">
-        <v>1659.098493404309</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="V5" t="n">
-        <v>1322.119219300251</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="W5" t="n">
-        <v>1322.119219300251</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="X5" t="n">
-        <v>940.0890788217441</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="Y5" t="n">
-        <v>546.5472233975821</v>
+        <v>2010.574518555815</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.5572604841334</v>
+        <v>614.1782368302144</v>
       </c>
       <c r="C6" t="n">
-        <v>556.5572604841334</v>
+        <v>452.4745640711691</v>
       </c>
       <c r="D6" t="n">
-        <v>417.7186234743454</v>
+        <v>452.4745640711691</v>
       </c>
       <c r="E6" t="n">
-        <v>270.6906135312166</v>
+        <v>305.4465541280403</v>
       </c>
       <c r="F6" t="n">
-        <v>270.6906135312166</v>
+        <v>170.7527560779147</v>
       </c>
       <c r="G6" t="n">
-        <v>141.9621135545012</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H6" t="n">
         <v>42.02425610119923</v>
@@ -4646,16 +4646,16 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J6" t="n">
-        <v>102.2784026343054</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K6" t="n">
-        <v>331.768955194494</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="L6" t="n">
-        <v>697.5908003646097</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M6" t="n">
-        <v>1182.624153874836</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N6" t="n">
         <v>1249.145305214519</v>
@@ -4673,25 +4673,25 @@
         <v>2041.428536154907</v>
       </c>
       <c r="S6" t="n">
-        <v>1888.629049167647</v>
+        <v>2040.927381638163</v>
       </c>
       <c r="T6" t="n">
-        <v>1699.943945333632</v>
+        <v>1852.242277804148</v>
       </c>
       <c r="U6" t="n">
-        <v>1481.449152931943</v>
+        <v>1633.747485402458</v>
       </c>
       <c r="V6" t="n">
-        <v>1253.053530380276</v>
+        <v>1405.351862850792</v>
       </c>
       <c r="W6" t="n">
-        <v>1011.737661613587</v>
+        <v>1164.035994084102</v>
       </c>
       <c r="X6" t="n">
-        <v>813.8206734913811</v>
+        <v>966.1190059618965</v>
       </c>
       <c r="Y6" t="n">
-        <v>621.2993471409599</v>
+        <v>773.5976796114753</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>380.5599742716689</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="C7" t="n">
-        <v>210.9440047333492</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="D7" t="n">
-        <v>210.9440047333492</v>
+        <v>382.4742668285834</v>
       </c>
       <c r="E7" t="n">
-        <v>210.9440047333492</v>
+        <v>230.4652525899022</v>
       </c>
       <c r="F7" t="n">
-        <v>210.9440047333492</v>
+        <v>230.4652525899022</v>
       </c>
       <c r="G7" t="n">
-        <v>42.02425610119923</v>
+        <v>61.5455039577522</v>
       </c>
       <c r="H7" t="n">
-        <v>42.02425610119923</v>
+        <v>61.5455039577522</v>
       </c>
       <c r="I7" t="n">
-        <v>42.02425610119923</v>
+        <v>61.5455039577522</v>
       </c>
       <c r="J7" t="n">
         <v>42.02425610119923</v>
@@ -4746,31 +4746,31 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q7" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R7" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="S7" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="T7" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="U7" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="V7" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="W7" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="X7" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="Y7" t="n">
-        <v>380.5599742716689</v>
+        <v>535.5461600008207</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>867.9637832951018</v>
+        <v>641.0562280876408</v>
       </c>
       <c r="C8" t="n">
-        <v>867.9637832951018</v>
+        <v>641.0562280876408</v>
       </c>
       <c r="D8" t="n">
-        <v>495.1398185223254</v>
+        <v>641.0562280876408</v>
       </c>
       <c r="E8" t="n">
-        <v>100.3540986284323</v>
+        <v>641.0562280876408</v>
       </c>
       <c r="F8" t="n">
-        <v>90.24331197900665</v>
+        <v>630.9454414382152</v>
       </c>
       <c r="G8" t="n">
-        <v>78.17972947359868</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="H8" t="n">
-        <v>78.17972947359868</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I8" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J8" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740046</v>
       </c>
       <c r="K8" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L8" t="n">
-        <v>702.0485455037337</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M8" t="n">
-        <v>1095.287711756822</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N8" t="n">
-        <v>1473.619070444538</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O8" t="n">
         <v>1778.623654917371</v>
@@ -4828,28 +4828,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R8" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S8" t="n">
-        <v>1823.345543186168</v>
+        <v>1977.485909098611</v>
       </c>
       <c r="T8" t="n">
-        <v>1598.98659691718</v>
+        <v>1977.485909098611</v>
       </c>
       <c r="U8" t="n">
-        <v>1598.98659691718</v>
+        <v>1722.600572812605</v>
       </c>
       <c r="V8" t="n">
-        <v>1262.007322813121</v>
+        <v>1385.621298708546</v>
       </c>
       <c r="W8" t="n">
-        <v>1262.007322813121</v>
+        <v>1023.086368566147</v>
       </c>
       <c r="X8" t="n">
-        <v>1262.007322813121</v>
+        <v>641.0562280876408</v>
       </c>
       <c r="Y8" t="n">
-        <v>1262.007322813121</v>
+        <v>641.0562280876408</v>
       </c>
     </row>
     <row r="9">
@@ -4859,13 +4859,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>605.9888638968736</v>
+        <v>753.0168738400023</v>
       </c>
       <c r="C9" t="n">
-        <v>444.2851911378282</v>
+        <v>591.313201080957</v>
       </c>
       <c r="D9" t="n">
-        <v>305.4465541280403</v>
+        <v>452.4745640711691</v>
       </c>
       <c r="E9" t="n">
         <v>305.4465541280403</v>
@@ -4889,46 +4889,46 @@
         <v>271.5148086613879</v>
       </c>
       <c r="L9" t="n">
-        <v>410.6179353667646</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="M9" t="n">
-        <v>895.6512888769911</v>
+        <v>756.5481621716143</v>
       </c>
       <c r="N9" t="n">
-        <v>1406.916935000113</v>
+        <v>1267.813808294736</v>
       </c>
       <c r="O9" t="n">
-        <v>1799.116885784264</v>
+        <v>1660.013759078887</v>
       </c>
       <c r="P9" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q9" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R9" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S9" t="n">
-        <v>1888.629049167647</v>
+        <v>1991.080914813936</v>
       </c>
       <c r="T9" t="n">
-        <v>1699.943945333632</v>
+        <v>1991.080914813936</v>
       </c>
       <c r="U9" t="n">
-        <v>1481.449152931943</v>
+        <v>1772.586122412246</v>
       </c>
       <c r="V9" t="n">
-        <v>1253.053530380276</v>
+        <v>1544.19049986058</v>
       </c>
       <c r="W9" t="n">
-        <v>1011.737661613587</v>
+        <v>1302.87463109389</v>
       </c>
       <c r="X9" t="n">
-        <v>813.8206734913811</v>
+        <v>1104.957642971684</v>
       </c>
       <c r="Y9" t="n">
-        <v>621.2993471409599</v>
+        <v>912.4363166212631</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>56.67463575990658</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="C10" t="n">
-        <v>56.67463575990658</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="D10" t="n">
-        <v>56.67463575990658</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="E10" t="n">
-        <v>56.67463575990658</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="F10" t="n">
-        <v>56.67463575990658</v>
+        <v>210.9440047333492</v>
       </c>
       <c r="G10" t="n">
-        <v>56.67463575990658</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H10" t="n">
-        <v>56.67463575990658</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I10" t="n">
         <v>42.02425610119923</v>
@@ -4995,19 +4995,19 @@
         <v>574.0835013471317</v>
       </c>
       <c r="U10" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="V10" t="n">
-        <v>574.0835013471317</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="W10" t="n">
-        <v>287.9270998645308</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="X10" t="n">
-        <v>56.67463575990658</v>
+        <v>286.8932618362315</v>
       </c>
       <c r="Y10" t="n">
-        <v>56.67463575990658</v>
+        <v>286.8932618362315</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1977.203076502887</v>
+        <v>1219.762831603013</v>
       </c>
       <c r="C11" t="n">
-        <v>1977.203076502887</v>
+        <v>837.8290729358207</v>
       </c>
       <c r="D11" t="n">
-        <v>1604.379111730111</v>
+        <v>465.0051081630443</v>
       </c>
       <c r="E11" t="n">
-        <v>1209.593391836218</v>
+        <v>465.0051081630443</v>
       </c>
       <c r="F11" t="n">
-        <v>795.442201146388</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G11" t="n">
-        <v>379.7240237655113</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H11" t="n">
         <v>50.85391747321462</v>
@@ -5065,28 +5065,28 @@
         <v>2542.695873660731</v>
       </c>
       <c r="R11" t="n">
-        <v>2542.695873660731</v>
+        <v>2479.74452535166</v>
       </c>
       <c r="S11" t="n">
-        <v>2542.695873660731</v>
+        <v>2301.307176327978</v>
       </c>
       <c r="T11" t="n">
-        <v>2542.695873660731</v>
+        <v>2301.307176327978</v>
       </c>
       <c r="U11" t="n">
-        <v>2542.695873660731</v>
+        <v>2301.307176327978</v>
       </c>
       <c r="V11" t="n">
-        <v>2542.695873660731</v>
+        <v>1964.327902223919</v>
       </c>
       <c r="W11" t="n">
-        <v>2542.695873660731</v>
+        <v>1601.79297208152</v>
       </c>
       <c r="X11" t="n">
-        <v>2160.665733182224</v>
+        <v>1219.762831603013</v>
       </c>
       <c r="Y11" t="n">
-        <v>1977.203076502887</v>
+        <v>1219.762831603013</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>920.8593958421042</v>
+        <v>920.8593958421045</v>
       </c>
       <c r="C12" t="n">
-        <v>759.155723083059</v>
+        <v>759.1557230830592</v>
       </c>
       <c r="D12" t="n">
-        <v>620.3170860732712</v>
+        <v>620.3170860732713</v>
       </c>
       <c r="E12" t="n">
-        <v>473.2890761301423</v>
+        <v>473.2890761301425</v>
       </c>
       <c r="F12" t="n">
-        <v>338.5952780800167</v>
+        <v>338.5952780800169</v>
       </c>
       <c r="G12" t="n">
-        <v>210.0732042050868</v>
+        <v>210.0732042050874</v>
       </c>
       <c r="H12" t="n">
-        <v>112.1289883137697</v>
+        <v>112.1289883137705</v>
       </c>
       <c r="I12" t="n">
-        <v>50.85391747321462</v>
+        <v>50.85391747321523</v>
       </c>
       <c r="J12" t="n">
         <v>50.85391747321462</v>
@@ -5135,7 +5135,7 @@
         <v>1822.946479591694</v>
       </c>
       <c r="O12" t="n">
-        <v>2201.966047520445</v>
+        <v>2263.283082167001</v>
       </c>
       <c r="P12" t="n">
         <v>2542.695873660731</v>
@@ -5147,7 +5147,7 @@
         <v>2495.728130619192</v>
       </c>
       <c r="S12" t="n">
-        <v>2346.762917934841</v>
+        <v>2346.762917934842</v>
       </c>
       <c r="T12" t="n">
         <v>2158.909856151447</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>176.9539853770042</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="C13" t="n">
-        <v>176.9539853770042</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="D13" t="n">
-        <v>176.9539853770042</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="E13" t="n">
-        <v>176.9539853770042</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F13" t="n">
-        <v>176.9539853770042</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G13" t="n">
-        <v>176.9539853770042</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H13" t="n">
         <v>50.85391747321462</v>
@@ -5229,22 +5229,22 @@
         <v>724.8700896544216</v>
       </c>
       <c r="T13" t="n">
-        <v>724.8700896544216</v>
+        <v>492.4305776831415</v>
       </c>
       <c r="U13" t="n">
-        <v>437.6892898185816</v>
+        <v>205.2497778473015</v>
       </c>
       <c r="V13" t="n">
-        <v>176.9539853770042</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="W13" t="n">
-        <v>176.9539853770042</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="X13" t="n">
-        <v>176.9539853770042</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="Y13" t="n">
-        <v>176.9539853770042</v>
+        <v>50.85391747321462</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1002.97984784864</v>
+        <v>543.0347908772003</v>
       </c>
       <c r="C14" t="n">
-        <v>859.7908280569375</v>
+        <v>161.1010322100076</v>
       </c>
       <c r="D14" t="n">
-        <v>859.7908280569375</v>
+        <v>161.1010322100076</v>
       </c>
       <c r="E14" t="n">
-        <v>465.0051081630443</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F14" t="n">
         <v>50.85391747321462</v>
@@ -5302,28 +5302,28 @@
         <v>2542.695873660731</v>
       </c>
       <c r="R14" t="n">
-        <v>2542.695873660731</v>
+        <v>2476.292672113454</v>
       </c>
       <c r="S14" t="n">
-        <v>2364.258524637049</v>
+        <v>2297.855323089771</v>
       </c>
       <c r="T14" t="n">
-        <v>2141.588457987564</v>
+        <v>2075.185256440287</v>
       </c>
       <c r="U14" t="n">
-        <v>2141.588457987564</v>
+        <v>2075.185256440287</v>
       </c>
       <c r="V14" t="n">
-        <v>2141.588457987564</v>
+        <v>2075.185256440287</v>
       </c>
       <c r="W14" t="n">
-        <v>1779.053527845165</v>
+        <v>1712.650326297888</v>
       </c>
       <c r="X14" t="n">
-        <v>1397.023387366659</v>
+        <v>1330.620185819382</v>
       </c>
       <c r="Y14" t="n">
-        <v>1397.023387366659</v>
+        <v>937.0783303952195</v>
       </c>
     </row>
     <row r="15">
@@ -5333,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>920.8593958421039</v>
+        <v>920.8593958421042</v>
       </c>
       <c r="C15" t="n">
-        <v>759.1557230830587</v>
+        <v>759.155723083059</v>
       </c>
       <c r="D15" t="n">
-        <v>620.3170860732707</v>
+        <v>620.3170860732712</v>
       </c>
       <c r="E15" t="n">
-        <v>473.2890761301419</v>
+        <v>473.2890761301423</v>
       </c>
       <c r="F15" t="n">
-        <v>338.5952780800163</v>
+        <v>338.5952780800167</v>
       </c>
       <c r="G15" t="n">
         <v>210.0732042050868</v>
       </c>
       <c r="H15" t="n">
-        <v>112.1289883137699</v>
+        <v>112.1289883137697</v>
       </c>
       <c r="I15" t="n">
         <v>50.85391747321462</v>
       </c>
       <c r="J15" t="n">
-        <v>130.2226992162549</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K15" t="n">
-        <v>392.3832078845233</v>
+        <v>313.014426141483</v>
       </c>
       <c r="L15" t="n">
-        <v>802.1338407649491</v>
+        <v>661.4480243753522</v>
       </c>
       <c r="M15" t="n">
-        <v>1014.14682775868</v>
+        <v>1197.744201156453</v>
       </c>
       <c r="N15" t="n">
-        <v>1578.032071547365</v>
+        <v>1761.629444945137</v>
       </c>
       <c r="O15" t="n">
-        <v>2018.368674122672</v>
+        <v>2201.966047520445</v>
       </c>
       <c r="P15" t="n">
-        <v>2359.098500262958</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="Q15" t="n">
-        <v>2542.69587366073</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R15" t="n">
         <v>2495.728130619192</v>
@@ -5387,16 +5387,16 @@
         <v>2346.762917934841</v>
       </c>
       <c r="T15" t="n">
-        <v>2158.909856151446</v>
+        <v>2158.909856151447</v>
       </c>
       <c r="U15" t="n">
-        <v>1940.428644414347</v>
+        <v>1940.428644414348</v>
       </c>
       <c r="V15" t="n">
-        <v>1712.033021862681</v>
+        <v>1712.033021862682</v>
       </c>
       <c r="W15" t="n">
-        <v>1470.717153095991</v>
+        <v>1470.717153095992</v>
       </c>
       <c r="X15" t="n">
         <v>1272.800164973786</v>
@@ -5457,28 +5457,28 @@
         <v>724.8700896544216</v>
       </c>
       <c r="Q16" t="n">
-        <v>700.8242228045381</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R16" t="n">
-        <v>700.8242228045381</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S16" t="n">
-        <v>700.8242228045381</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="T16" t="n">
-        <v>504.1415403855618</v>
+        <v>569.2871814136788</v>
       </c>
       <c r="U16" t="n">
-        <v>504.1415403855618</v>
+        <v>282.1063815778389</v>
       </c>
       <c r="V16" t="n">
-        <v>504.1415403855618</v>
+        <v>282.1063815778389</v>
       </c>
       <c r="W16" t="n">
-        <v>504.1415403855618</v>
+        <v>282.1063815778389</v>
       </c>
       <c r="X16" t="n">
-        <v>272.8890762809376</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="Y16" t="n">
         <v>50.85391747321462</v>
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>861.3578147479845</v>
+        <v>1614.548551496907</v>
       </c>
       <c r="C17" t="n">
-        <v>861.3578147479845</v>
+        <v>1232.614792829714</v>
       </c>
       <c r="D17" t="n">
-        <v>861.3578147479845</v>
+        <v>859.7908280569375</v>
       </c>
       <c r="E17" t="n">
-        <v>466.5720948540913</v>
+        <v>465.0051081630443</v>
       </c>
       <c r="F17" t="n">
-        <v>466.5720948540913</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G17" t="n">
         <v>50.85391747321462</v>
@@ -5545,22 +5545,22 @@
         <v>2542.695873660731</v>
       </c>
       <c r="T17" t="n">
-        <v>2348.457413936623</v>
+        <v>2359.113622117812</v>
       </c>
       <c r="U17" t="n">
-        <v>2348.457413936623</v>
+        <v>2359.113622117812</v>
       </c>
       <c r="V17" t="n">
-        <v>2011.478139832564</v>
+        <v>2359.113622117812</v>
       </c>
       <c r="W17" t="n">
-        <v>1648.943209690166</v>
+        <v>1996.578691975413</v>
       </c>
       <c r="X17" t="n">
-        <v>1648.943209690166</v>
+        <v>1614.548551496907</v>
       </c>
       <c r="Y17" t="n">
-        <v>1255.401354266004</v>
+        <v>1614.548551496907</v>
       </c>
     </row>
     <row r="18">
@@ -5606,7 +5606,7 @@
         <v>1338.430017546049</v>
       </c>
       <c r="N18" t="n">
-        <v>1902.315261334734</v>
+        <v>1578.032071547365</v>
       </c>
       <c r="O18" t="n">
         <v>2018.368674122672</v>
@@ -5697,28 +5697,28 @@
         <v>724.8700896544216</v>
       </c>
       <c r="R19" t="n">
-        <v>583.1297470766741</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S19" t="n">
-        <v>372.4359606620631</v>
+        <v>569.4498309270956</v>
       </c>
       <c r="T19" t="n">
-        <v>372.4359606620631</v>
+        <v>337.0103189558155</v>
       </c>
       <c r="U19" t="n">
-        <v>85.25516082622306</v>
+        <v>337.0103189558155</v>
       </c>
       <c r="V19" t="n">
-        <v>85.25516082622306</v>
+        <v>337.0103189558155</v>
       </c>
       <c r="W19" t="n">
-        <v>85.25516082622306</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="X19" t="n">
-        <v>85.25516082622306</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.25516082622306</v>
+        <v>50.85391747321462</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1064.253999320914</v>
+        <v>1324.642470188152</v>
       </c>
       <c r="C20" t="n">
-        <v>1064.253999320914</v>
+        <v>1324.642470188152</v>
       </c>
       <c r="D20" t="n">
-        <v>691.4300345481379</v>
+        <v>951.8185054153753</v>
       </c>
       <c r="E20" t="n">
-        <v>691.4300345481379</v>
+        <v>951.8185054153753</v>
       </c>
       <c r="F20" t="n">
-        <v>691.4300345481379</v>
+        <v>537.6673147255457</v>
       </c>
       <c r="G20" t="n">
-        <v>379.7240237655113</v>
+        <v>537.6673147255457</v>
       </c>
       <c r="H20" t="n">
-        <v>50.85391747321461</v>
+        <v>208.797208433249</v>
       </c>
       <c r="I20" t="n">
         <v>50.85391747321461</v>
@@ -5758,7 +5758,7 @@
         <v>443.1860302481632</v>
       </c>
       <c r="L20" t="n">
-        <v>850.7433998907115</v>
+        <v>850.7433998907118</v>
       </c>
       <c r="M20" t="n">
         <v>1310.379159876956</v>
@@ -5776,28 +5776,28 @@
         <v>2542.69587366073</v>
       </c>
       <c r="R20" t="n">
-        <v>2476.292672113453</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="S20" t="n">
-        <v>2297.855323089771</v>
+        <v>2364.258524637048</v>
       </c>
       <c r="T20" t="n">
-        <v>2075.185256440287</v>
+        <v>2364.258524637048</v>
       </c>
       <c r="U20" t="n">
-        <v>1820.330784887475</v>
+        <v>2109.404053084237</v>
       </c>
       <c r="V20" t="n">
-        <v>1820.330784887475</v>
+        <v>2109.404053084237</v>
       </c>
       <c r="W20" t="n">
-        <v>1457.795854745076</v>
+        <v>1746.869122941838</v>
       </c>
       <c r="X20" t="n">
-        <v>1457.795854745076</v>
+        <v>1746.869122941838</v>
       </c>
       <c r="Y20" t="n">
-        <v>1064.253999320914</v>
+        <v>1718.686009706171</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>50.85391747321461</v>
       </c>
       <c r="J21" t="n">
-        <v>130.2226992162549</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="K21" t="n">
-        <v>392.3832078845233</v>
+        <v>313.014426141483</v>
       </c>
       <c r="L21" t="n">
-        <v>802.1338407649491</v>
+        <v>722.7650590219088</v>
       </c>
       <c r="M21" t="n">
-        <v>1338.430017546049</v>
+        <v>1197.744201156452</v>
       </c>
       <c r="N21" t="n">
-        <v>1902.315261334734</v>
+        <v>1761.629444945137</v>
       </c>
       <c r="O21" t="n">
-        <v>2018.368674122672</v>
+        <v>2201.966047520444</v>
       </c>
       <c r="P21" t="n">
-        <v>2359.098500262958</v>
+        <v>2542.69587366073</v>
       </c>
       <c r="Q21" t="n">
         <v>2542.69587366073</v>
@@ -5931,28 +5931,28 @@
         <v>724.8700896544216</v>
       </c>
       <c r="Q22" t="n">
-        <v>700.8242228045381</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R22" t="n">
-        <v>559.0838802267906</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S22" t="n">
-        <v>348.3900938121795</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="T22" t="n">
-        <v>348.3900938121795</v>
+        <v>568.2627830604397</v>
       </c>
       <c r="U22" t="n">
-        <v>348.3900938121795</v>
+        <v>568.2627830604397</v>
       </c>
       <c r="V22" t="n">
-        <v>348.3900938121795</v>
+        <v>568.2627830604397</v>
       </c>
       <c r="W22" t="n">
-        <v>348.3900938121795</v>
+        <v>282.1063815778389</v>
       </c>
       <c r="X22" t="n">
-        <v>117.1376297075553</v>
+        <v>50.85391747321461</v>
       </c>
       <c r="Y22" t="n">
         <v>50.85391747321461</v>
@@ -5965,40 +5965,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1006.412269192437</v>
+        <v>1742.399871568374</v>
       </c>
       <c r="C23" t="n">
-        <v>1006.412269192437</v>
+        <v>1360.466112901181</v>
       </c>
       <c r="D23" t="n">
-        <v>1006.412269192437</v>
+        <v>987.6421481284049</v>
       </c>
       <c r="E23" t="n">
-        <v>611.6265492985435</v>
+        <v>592.8564282345117</v>
       </c>
       <c r="F23" t="n">
-        <v>611.6265492985435</v>
+        <v>178.705237544682</v>
       </c>
       <c r="G23" t="n">
-        <v>196.6817137896151</v>
+        <v>178.705237544682</v>
       </c>
       <c r="H23" t="n">
-        <v>196.6817137896151</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="I23" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J23" t="n">
         <v>236.974933180568</v>
       </c>
       <c r="K23" t="n">
-        <v>621.6294415950432</v>
+        <v>621.6294415950431</v>
       </c>
       <c r="L23" t="n">
         <v>1148.797379660662</v>
       </c>
       <c r="M23" t="n">
-        <v>1741.522943506783</v>
+        <v>1741.522943506782</v>
       </c>
       <c r="N23" t="n">
         <v>2322.568598257194</v>
@@ -6019,22 +6019,22 @@
         <v>3248.994681093121</v>
       </c>
       <c r="T23" t="n">
-        <v>3029.70991848809</v>
+        <v>3248.994681093121</v>
       </c>
       <c r="U23" t="n">
-        <v>2774.917314285035</v>
+        <v>3248.994681093121</v>
       </c>
       <c r="V23" t="n">
-        <v>2437.938040180976</v>
+        <v>2912.015406989062</v>
       </c>
       <c r="W23" t="n">
-        <v>2176.027804613125</v>
+        <v>2912.015406989062</v>
       </c>
       <c r="X23" t="n">
-        <v>1793.997664134618</v>
+        <v>2529.985266510555</v>
       </c>
       <c r="Y23" t="n">
-        <v>1400.455808710456</v>
+        <v>2136.443411086393</v>
       </c>
     </row>
     <row r="24">
@@ -6059,31 +6059,31 @@
         <v>337.6379028617196</v>
       </c>
       <c r="G24" t="n">
-        <v>209.5296033666726</v>
+        <v>209.5296033666725</v>
       </c>
       <c r="H24" t="n">
         <v>115.581576881063</v>
       </c>
       <c r="I24" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J24" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="K24" t="n">
-        <v>396.1990541494053</v>
+        <v>155.3190992754846</v>
       </c>
       <c r="L24" t="n">
-        <v>416.7319830305476</v>
+        <v>653.1235525621788</v>
       </c>
       <c r="M24" t="n">
-        <v>882.3128012874008</v>
+        <v>1292.174384527</v>
       </c>
       <c r="N24" t="n">
-        <v>1551.672310226501</v>
+        <v>1961.533893466101</v>
       </c>
       <c r="O24" t="n">
-        <v>2088.497259344154</v>
+        <v>2498.358842583754</v>
       </c>
       <c r="P24" t="n">
         <v>2506.667490147568</v>
@@ -6123,46 +6123,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.5526853478658</v>
+        <v>220.561699586547</v>
       </c>
       <c r="C25" t="n">
-        <v>68.5526853478658</v>
+        <v>220.561699586547</v>
       </c>
       <c r="D25" t="n">
-        <v>68.5526853478658</v>
+        <v>220.561699586547</v>
       </c>
       <c r="E25" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="F25" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="G25" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="H25" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="I25" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J25" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="K25" t="n">
         <v>161.36407341285</v>
       </c>
       <c r="L25" t="n">
-        <v>337.7359848975268</v>
+        <v>337.7359848975267</v>
       </c>
       <c r="M25" t="n">
-        <v>535.6128834448184</v>
+        <v>535.6128834448182</v>
       </c>
       <c r="N25" t="n">
-        <v>732.0191690905297</v>
+        <v>732.0191690905294</v>
       </c>
       <c r="O25" t="n">
-        <v>902.5136098413569</v>
+        <v>902.5136098413567</v>
       </c>
       <c r="P25" t="n">
         <v>1027.116881758995</v>
@@ -6171,28 +6171,28 @@
         <v>1032.019166068125</v>
       </c>
       <c r="R25" t="n">
-        <v>1032.019166068125</v>
+        <v>905.8764634664541</v>
       </c>
       <c r="S25" t="n">
-        <v>827.370805418605</v>
+        <v>905.8764634664541</v>
       </c>
       <c r="T25" t="n">
-        <v>827.370805418605</v>
+        <v>905.8764634664541</v>
       </c>
       <c r="U25" t="n">
-        <v>540.2089271031564</v>
+        <v>664.8523727125041</v>
       </c>
       <c r="V25" t="n">
-        <v>279.473622661579</v>
+        <v>404.1170682709268</v>
       </c>
       <c r="W25" t="n">
-        <v>279.473622661579</v>
+        <v>404.1170682709268</v>
       </c>
       <c r="X25" t="n">
-        <v>279.473622661579</v>
+        <v>404.1170682709268</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.5526853478658</v>
+        <v>404.1170682709268</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2123.447337395666</v>
+        <v>1741.513578728473</v>
       </c>
       <c r="C26" t="n">
         <v>1741.513578728473</v>
@@ -6223,10 +6223,10 @@
         <v>196.6817137896151</v>
       </c>
       <c r="I26" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J26" t="n">
-        <v>236.9749331805679</v>
+        <v>236.974933180568</v>
       </c>
       <c r="K26" t="n">
         <v>621.6294415950431</v>
@@ -6250,28 +6250,28 @@
         <v>3427.63426739329</v>
       </c>
       <c r="R26" t="n">
-        <v>3427.63426739329</v>
+        <v>3409.809502209782</v>
       </c>
       <c r="S26" t="n">
-        <v>3266.819446276629</v>
+        <v>3248.994681093121</v>
       </c>
       <c r="T26" t="n">
-        <v>3266.819446276629</v>
+        <v>3248.994681093121</v>
       </c>
       <c r="U26" t="n">
-        <v>3012.026842073573</v>
+        <v>2994.202076890065</v>
       </c>
       <c r="V26" t="n">
-        <v>2675.047567969515</v>
+        <v>2657.222802786006</v>
       </c>
       <c r="W26" t="n">
-        <v>2312.512637827116</v>
+        <v>2294.687872643608</v>
       </c>
       <c r="X26" t="n">
-        <v>2123.447337395666</v>
+        <v>2294.687872643608</v>
       </c>
       <c r="Y26" t="n">
-        <v>2123.447337395666</v>
+        <v>1901.146017219446</v>
       </c>
     </row>
     <row r="27">
@@ -6296,34 +6296,34 @@
         <v>337.6379028617196</v>
       </c>
       <c r="G27" t="n">
-        <v>209.5296033666726</v>
+        <v>209.5296033666725</v>
       </c>
       <c r="H27" t="n">
         <v>115.581576881063</v>
       </c>
       <c r="I27" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J27" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="K27" t="n">
-        <v>396.1990541494053</v>
+        <v>252.3583209450357</v>
       </c>
       <c r="L27" t="n">
-        <v>416.7319830305476</v>
+        <v>750.1627742317299</v>
       </c>
       <c r="M27" t="n">
-        <v>1055.782814995369</v>
+        <v>1389.213606196552</v>
       </c>
       <c r="N27" t="n">
-        <v>1316.308077135687</v>
+        <v>2058.573115135652</v>
       </c>
       <c r="O27" t="n">
-        <v>1853.13302625334</v>
+        <v>2088.497259344154</v>
       </c>
       <c r="P27" t="n">
-        <v>2271.303257056754</v>
+        <v>2506.667490147568</v>
       </c>
       <c r="Q27" t="n">
         <v>2506.667490147568</v>
@@ -6360,46 +6360,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.5526853478658</v>
+        <v>458.7008862700752</v>
       </c>
       <c r="C28" t="n">
-        <v>68.5526853478658</v>
+        <v>458.7008862700752</v>
       </c>
       <c r="D28" t="n">
-        <v>68.5526853478658</v>
+        <v>458.7008862700752</v>
       </c>
       <c r="E28" t="n">
-        <v>68.5526853478658</v>
+        <v>458.7008862700752</v>
       </c>
       <c r="F28" t="n">
-        <v>68.5526853478658</v>
+        <v>306.2202312958523</v>
       </c>
       <c r="G28" t="n">
-        <v>68.5526853478658</v>
+        <v>137.8204379136486</v>
       </c>
       <c r="H28" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="I28" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J28" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="K28" t="n">
         <v>161.36407341285</v>
       </c>
       <c r="L28" t="n">
-        <v>337.7359848975268</v>
+        <v>337.7359848975267</v>
       </c>
       <c r="M28" t="n">
-        <v>535.6128834448184</v>
+        <v>535.6128834448182</v>
       </c>
       <c r="N28" t="n">
-        <v>732.0191690905297</v>
+        <v>732.0191690905294</v>
       </c>
       <c r="O28" t="n">
-        <v>902.5136098413569</v>
+        <v>902.5136098413567</v>
       </c>
       <c r="P28" t="n">
         <v>1027.116881758995</v>
@@ -6408,28 +6408,28 @@
         <v>1032.019166068125</v>
       </c>
       <c r="R28" t="n">
-        <v>905.8764634664545</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="S28" t="n">
-        <v>905.8764634664545</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="T28" t="n">
-        <v>905.8764634664545</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="U28" t="n">
-        <v>618.7145851510061</v>
+        <v>744.857287752676</v>
       </c>
       <c r="V28" t="n">
-        <v>576.7442456381896</v>
+        <v>744.857287752676</v>
       </c>
       <c r="W28" t="n">
-        <v>290.5878441555888</v>
+        <v>458.7008862700752</v>
       </c>
       <c r="X28" t="n">
-        <v>290.5878441555888</v>
+        <v>458.7008862700752</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.5526853478658</v>
+        <v>458.7008862700752</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1844.081751805486</v>
+        <v>1895.483801830203</v>
       </c>
       <c r="C29" t="n">
-        <v>1462.147993138293</v>
+        <v>1513.55004316301</v>
       </c>
       <c r="D29" t="n">
-        <v>1420.563459882266</v>
+        <v>1513.55004316301</v>
       </c>
       <c r="E29" t="n">
-        <v>1025.777739988373</v>
+        <v>1118.764323269117</v>
       </c>
       <c r="F29" t="n">
-        <v>611.6265492985435</v>
+        <v>704.6131325792871</v>
       </c>
       <c r="G29" t="n">
-        <v>196.6817137896151</v>
+        <v>289.6682970703587</v>
       </c>
       <c r="H29" t="n">
-        <v>196.6817137896151</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="I29" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J29" t="n">
-        <v>236.9749331805679</v>
+        <v>236.9749331805676</v>
       </c>
       <c r="K29" t="n">
-        <v>621.6294415950431</v>
+        <v>621.6294415950427</v>
       </c>
       <c r="L29" t="n">
         <v>1148.797379660662</v>
       </c>
       <c r="M29" t="n">
-        <v>1741.522943506783</v>
+        <v>1741.522943506782</v>
       </c>
       <c r="N29" t="n">
         <v>2322.568598257194</v>
@@ -6487,28 +6487,28 @@
         <v>3427.63426739329</v>
       </c>
       <c r="R29" t="n">
-        <v>3409.809502209782</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="S29" t="n">
-        <v>3248.994681093121</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="T29" t="n">
-        <v>3248.994681093121</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="U29" t="n">
-        <v>2994.202076890066</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="V29" t="n">
-        <v>2994.202076890066</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="W29" t="n">
-        <v>2631.667146747667</v>
+        <v>3065.099337250891</v>
       </c>
       <c r="X29" t="n">
-        <v>2631.667146747667</v>
+        <v>2683.069196772384</v>
       </c>
       <c r="Y29" t="n">
-        <v>2238.125291323505</v>
+        <v>2289.527341348222</v>
       </c>
     </row>
     <row r="30">
@@ -6533,13 +6533,13 @@
         <v>337.6379028617196</v>
       </c>
       <c r="G30" t="n">
-        <v>209.5296033666726</v>
+        <v>209.5296033666725</v>
       </c>
       <c r="H30" t="n">
         <v>115.581576881063</v>
       </c>
       <c r="I30" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J30" t="n">
         <v>186.2361291527469</v>
@@ -6551,13 +6551,13 @@
         <v>1011.686951240981</v>
       </c>
       <c r="M30" t="n">
-        <v>1051.375366159553</v>
+        <v>1650.737783205802</v>
       </c>
       <c r="N30" t="n">
-        <v>1316.308077135687</v>
+        <v>1703.183656364749</v>
       </c>
       <c r="O30" t="n">
-        <v>1853.13302625334</v>
+        <v>1853.133026253341</v>
       </c>
       <c r="P30" t="n">
         <v>2271.303257056754</v>
@@ -6597,46 +6597,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.5526853478658</v>
+        <v>282.6474974407741</v>
       </c>
       <c r="C31" t="n">
-        <v>68.5526853478658</v>
+        <v>282.6474974407741</v>
       </c>
       <c r="D31" t="n">
-        <v>68.5526853478658</v>
+        <v>282.6474974407741</v>
       </c>
       <c r="E31" t="n">
-        <v>68.5526853478658</v>
+        <v>282.6474974407741</v>
       </c>
       <c r="F31" t="n">
-        <v>68.5526853478658</v>
+        <v>282.6474974407741</v>
       </c>
       <c r="G31" t="n">
-        <v>68.5526853478658</v>
+        <v>114.2477040585705</v>
       </c>
       <c r="H31" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="I31" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J31" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="K31" t="n">
         <v>161.36407341285</v>
       </c>
       <c r="L31" t="n">
-        <v>337.7359848975268</v>
+        <v>337.7359848975267</v>
       </c>
       <c r="M31" t="n">
-        <v>535.6128834448184</v>
+        <v>535.6128834448182</v>
       </c>
       <c r="N31" t="n">
-        <v>732.0191690905297</v>
+        <v>732.0191690905294</v>
       </c>
       <c r="O31" t="n">
-        <v>902.5136098413569</v>
+        <v>902.5136098413567</v>
       </c>
       <c r="P31" t="n">
         <v>1027.116881758995</v>
@@ -6645,28 +6645,28 @@
         <v>1032.019166068125</v>
       </c>
       <c r="R31" t="n">
-        <v>905.8764634664545</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="S31" t="n">
-        <v>701.2281028169343</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="T31" t="n">
-        <v>470.2707766096567</v>
+        <v>801.0618398608469</v>
       </c>
       <c r="U31" t="n">
-        <v>183.1088982942081</v>
+        <v>513.8999615453984</v>
       </c>
       <c r="V31" t="n">
-        <v>68.5526853478658</v>
+        <v>513.8999615453984</v>
       </c>
       <c r="W31" t="n">
-        <v>68.5526853478658</v>
+        <v>513.8999615453984</v>
       </c>
       <c r="X31" t="n">
-        <v>68.5526853478658</v>
+        <v>282.6474974407741</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.5526853478658</v>
+        <v>282.6474974407741</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1166.222282755158</v>
+        <v>1652.406434986593</v>
       </c>
       <c r="C32" t="n">
-        <v>784.2885240879656</v>
+        <v>1270.4726763194</v>
       </c>
       <c r="D32" t="n">
-        <v>784.2885240879656</v>
+        <v>897.6487115466239</v>
       </c>
       <c r="E32" t="n">
-        <v>389.5028041940724</v>
+        <v>897.6487115466239</v>
       </c>
       <c r="F32" t="n">
-        <v>389.5028041940724</v>
+        <v>483.4975208567942</v>
       </c>
       <c r="G32" t="n">
-        <v>389.5028041940724</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="H32" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="I32" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J32" t="n">
         <v>236.974933180568</v>
       </c>
       <c r="K32" t="n">
-        <v>621.6294415950432</v>
+        <v>621.6294415950431</v>
       </c>
       <c r="L32" t="n">
         <v>1148.797379660662</v>
@@ -6724,28 +6724,28 @@
         <v>3427.63426739329</v>
       </c>
       <c r="R32" t="n">
-        <v>3409.809502209782</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="S32" t="n">
-        <v>3248.994681093121</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="T32" t="n">
-        <v>3029.70991848809</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="U32" t="n">
-        <v>2774.917314285035</v>
+        <v>3184.55690054968</v>
       </c>
       <c r="V32" t="n">
-        <v>2437.938040180976</v>
+        <v>3184.55690054968</v>
       </c>
       <c r="W32" t="n">
-        <v>2075.403110038577</v>
+        <v>2822.021970407281</v>
       </c>
       <c r="X32" t="n">
-        <v>1693.37296956007</v>
+        <v>2439.991829928774</v>
       </c>
       <c r="Y32" t="n">
-        <v>1560.265822273177</v>
+        <v>2046.449974504612</v>
       </c>
     </row>
     <row r="33">
@@ -6770,34 +6770,34 @@
         <v>337.6379028617196</v>
       </c>
       <c r="G33" t="n">
-        <v>209.5296033666726</v>
+        <v>209.5296033666725</v>
       </c>
       <c r="H33" t="n">
         <v>115.581576881063</v>
       </c>
       <c r="I33" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J33" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="K33" t="n">
-        <v>396.1990541494053</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="L33" t="n">
-        <v>894.0035074360995</v>
+        <v>243.2619693225794</v>
       </c>
       <c r="M33" t="n">
-        <v>1263.86220397674</v>
+        <v>882.312801287401</v>
       </c>
       <c r="N33" t="n">
-        <v>1316.308077135687</v>
+        <v>1551.672310226501</v>
       </c>
       <c r="O33" t="n">
-        <v>1853.13302625334</v>
+        <v>2088.497259344154</v>
       </c>
       <c r="P33" t="n">
-        <v>2271.303257056754</v>
+        <v>2506.667490147568</v>
       </c>
       <c r="Q33" t="n">
         <v>2506.667490147568</v>
@@ -6834,46 +6834,46 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.5526853478658</v>
+        <v>412.5629726296005</v>
       </c>
       <c r="C34" t="n">
-        <v>68.5526853478658</v>
+        <v>242.9470030912808</v>
       </c>
       <c r="D34" t="n">
-        <v>68.5526853478658</v>
+        <v>242.9470030912808</v>
       </c>
       <c r="E34" t="n">
-        <v>68.5526853478658</v>
+        <v>90.9379888525996</v>
       </c>
       <c r="F34" t="n">
-        <v>68.5526853478658</v>
+        <v>90.9379888525996</v>
       </c>
       <c r="G34" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="H34" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="I34" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J34" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="K34" t="n">
         <v>161.36407341285</v>
       </c>
       <c r="L34" t="n">
-        <v>337.7359848975268</v>
+        <v>337.7359848975267</v>
       </c>
       <c r="M34" t="n">
-        <v>535.6128834448184</v>
+        <v>535.6128834448182</v>
       </c>
       <c r="N34" t="n">
-        <v>732.0191690905297</v>
+        <v>732.0191690905294</v>
       </c>
       <c r="O34" t="n">
-        <v>902.5136098413569</v>
+        <v>902.5136098413567</v>
       </c>
       <c r="P34" t="n">
         <v>1027.116881758995</v>
@@ -6882,28 +6882,28 @@
         <v>1032.019166068125</v>
       </c>
       <c r="R34" t="n">
-        <v>1030.962562996549</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="S34" t="n">
-        <v>1030.962562996549</v>
+        <v>827.3708054186045</v>
       </c>
       <c r="T34" t="n">
-        <v>800.0052367892715</v>
+        <v>827.3708054186045</v>
       </c>
       <c r="U34" t="n">
-        <v>512.8433584738231</v>
+        <v>827.3708054186045</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1080540322456</v>
+        <v>827.3708054186045</v>
       </c>
       <c r="W34" t="n">
-        <v>252.1080540322456</v>
+        <v>827.3708054186045</v>
       </c>
       <c r="X34" t="n">
-        <v>252.1080540322456</v>
+        <v>596.1183413139803</v>
       </c>
       <c r="Y34" t="n">
-        <v>252.1080540322456</v>
+        <v>596.1183413139803</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1632.247319371558</v>
+        <v>1591.422795165607</v>
       </c>
       <c r="C35" t="n">
-        <v>1250.313560704365</v>
+        <v>1591.422795165607</v>
       </c>
       <c r="D35" t="n">
-        <v>877.4895959315886</v>
+        <v>1218.59883039283</v>
       </c>
       <c r="E35" t="n">
-        <v>482.7038760376955</v>
+        <v>1218.59883039283</v>
       </c>
       <c r="F35" t="n">
-        <v>68.5526853478658</v>
+        <v>804.4476397030008</v>
       </c>
       <c r="G35" t="n">
-        <v>68.5526853478658</v>
+        <v>389.5028041940724</v>
       </c>
       <c r="H35" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="I35" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J35" t="n">
         <v>236.974933180568</v>
       </c>
       <c r="K35" t="n">
-        <v>621.6294415950432</v>
+        <v>621.6294415950431</v>
       </c>
       <c r="L35" t="n">
         <v>1148.797379660662</v>
       </c>
       <c r="M35" t="n">
-        <v>1741.522943506783</v>
+        <v>1741.522943506782</v>
       </c>
       <c r="N35" t="n">
         <v>2322.568598257194</v>
       </c>
       <c r="O35" t="n">
-        <v>2818.990544201361</v>
+        <v>2818.99054420136</v>
       </c>
       <c r="P35" t="n">
         <v>3210.517730076022</v>
@@ -6961,28 +6961,28 @@
         <v>3427.63426739329</v>
       </c>
       <c r="R35" t="n">
-        <v>3409.809502209782</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="S35" t="n">
-        <v>3248.994681093121</v>
+        <v>3266.819446276628</v>
       </c>
       <c r="T35" t="n">
-        <v>3029.70991848809</v>
+        <v>3047.534683671597</v>
       </c>
       <c r="U35" t="n">
-        <v>2774.917314285035</v>
+        <v>2792.742079468542</v>
       </c>
       <c r="V35" t="n">
-        <v>2437.938040180976</v>
+        <v>2455.762805364483</v>
       </c>
       <c r="W35" t="n">
-        <v>2437.938040180976</v>
+        <v>2093.227875222084</v>
       </c>
       <c r="X35" t="n">
-        <v>2419.832714313739</v>
+        <v>1711.197734743577</v>
       </c>
       <c r="Y35" t="n">
-        <v>2026.290858889577</v>
+        <v>1591.422795165607</v>
       </c>
     </row>
     <row r="36">
@@ -7007,34 +7007,34 @@
         <v>337.6379028617196</v>
       </c>
       <c r="G36" t="n">
-        <v>209.5296033666726</v>
+        <v>209.5296033666725</v>
       </c>
       <c r="H36" t="n">
         <v>115.581576881063</v>
       </c>
       <c r="I36" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J36" t="n">
-        <v>186.2361291527469</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="K36" t="n">
-        <v>513.8824979542865</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="L36" t="n">
-        <v>534.4154268354288</v>
+        <v>89.08561422900806</v>
       </c>
       <c r="M36" t="n">
-        <v>1173.466258800251</v>
+        <v>646.9485681965873</v>
       </c>
       <c r="N36" t="n">
-        <v>1842.825767739351</v>
+        <v>1316.308077135687</v>
       </c>
       <c r="O36" t="n">
-        <v>2379.650716857004</v>
+        <v>1853.133026253341</v>
       </c>
       <c r="P36" t="n">
-        <v>2387.959364420819</v>
+        <v>2271.303257056754</v>
       </c>
       <c r="Q36" t="n">
         <v>2506.667490147568</v>
@@ -7071,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.5526853478658</v>
+        <v>238.1686548861855</v>
       </c>
       <c r="C37" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="D37" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="E37" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="F37" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="G37" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="H37" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="I37" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J37" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="K37" t="n">
         <v>161.36407341285</v>
       </c>
       <c r="L37" t="n">
-        <v>337.7359848975268</v>
+        <v>337.7359848975267</v>
       </c>
       <c r="M37" t="n">
-        <v>535.6128834448184</v>
+        <v>535.6128834448182</v>
       </c>
       <c r="N37" t="n">
-        <v>732.0191690905297</v>
+        <v>732.0191690905294</v>
       </c>
       <c r="O37" t="n">
-        <v>902.5136098413569</v>
+        <v>902.5136098413567</v>
       </c>
       <c r="P37" t="n">
         <v>1027.116881758995</v>
@@ -7122,25 +7122,25 @@
         <v>1032.019166068125</v>
       </c>
       <c r="S37" t="n">
-        <v>827.370805418605</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="T37" t="n">
-        <v>596.4134792113273</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="U37" t="n">
-        <v>309.2516008958788</v>
+        <v>744.857287752676</v>
       </c>
       <c r="V37" t="n">
-        <v>68.5526853478658</v>
+        <v>524.3250563687864</v>
       </c>
       <c r="W37" t="n">
-        <v>68.5526853478658</v>
+        <v>238.1686548861855</v>
       </c>
       <c r="X37" t="n">
-        <v>68.5526853478658</v>
+        <v>238.1686548861855</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.5526853478658</v>
+        <v>238.1686548861855</v>
       </c>
     </row>
     <row r="38">
@@ -7150,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1633.040964190656</v>
+        <v>1674.36819010771</v>
       </c>
       <c r="C38" t="n">
-        <v>1251.107205523464</v>
+        <v>1292.434431440517</v>
       </c>
       <c r="D38" t="n">
-        <v>878.2832407506874</v>
+        <v>1292.434431440517</v>
       </c>
       <c r="E38" t="n">
-        <v>483.4975208567942</v>
+        <v>897.6487115466239</v>
       </c>
       <c r="F38" t="n">
         <v>483.4975208567942</v>
       </c>
       <c r="G38" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="H38" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="I38" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J38" t="n">
         <v>236.9749331805679</v>
       </c>
       <c r="K38" t="n">
-        <v>621.6294415950431</v>
+        <v>621.6294415950429</v>
       </c>
       <c r="L38" t="n">
         <v>1148.797379660662</v>
       </c>
       <c r="M38" t="n">
-        <v>1741.522943506783</v>
+        <v>1741.522943506782</v>
       </c>
       <c r="N38" t="n">
         <v>2322.568598257194</v>
@@ -7201,25 +7201,25 @@
         <v>3409.809502209782</v>
       </c>
       <c r="S38" t="n">
-        <v>3248.994681093121</v>
+        <v>3318.061092336484</v>
       </c>
       <c r="T38" t="n">
-        <v>3029.70991848809</v>
+        <v>3098.776329731453</v>
       </c>
       <c r="U38" t="n">
-        <v>2774.917314285035</v>
+        <v>2843.983725528398</v>
       </c>
       <c r="V38" t="n">
-        <v>2437.938040180976</v>
+        <v>2843.983725528398</v>
       </c>
       <c r="W38" t="n">
-        <v>2075.403110038577</v>
+        <v>2843.983725528398</v>
       </c>
       <c r="X38" t="n">
-        <v>2026.582819614819</v>
+        <v>2461.953585049891</v>
       </c>
       <c r="Y38" t="n">
-        <v>1633.040964190656</v>
+        <v>2068.411729625729</v>
       </c>
     </row>
     <row r="39">
@@ -7244,34 +7244,34 @@
         <v>337.6379028617196</v>
       </c>
       <c r="G39" t="n">
-        <v>209.5296033666726</v>
+        <v>209.5296033666725</v>
       </c>
       <c r="H39" t="n">
         <v>115.581576881063</v>
       </c>
       <c r="I39" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J39" t="n">
-        <v>186.2361291527469</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="K39" t="n">
-        <v>513.8824979542865</v>
+        <v>155.3190992754846</v>
       </c>
       <c r="L39" t="n">
-        <v>1011.686951240981</v>
+        <v>653.1235525621788</v>
       </c>
       <c r="M39" t="n">
-        <v>1650.737783205803</v>
+        <v>1292.174384527</v>
       </c>
       <c r="N39" t="n">
-        <v>1726.169660375286</v>
+        <v>1961.533893466101</v>
       </c>
       <c r="O39" t="n">
-        <v>2262.994609492939</v>
+        <v>2498.358842583754</v>
       </c>
       <c r="P39" t="n">
-        <v>2271.303257056754</v>
+        <v>2506.667490147568</v>
       </c>
       <c r="Q39" t="n">
         <v>2506.667490147568</v>
@@ -7308,46 +7308,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.5526853478658</v>
+        <v>643.8154367342247</v>
       </c>
       <c r="C40" t="n">
-        <v>68.5526853478658</v>
+        <v>474.199467195905</v>
       </c>
       <c r="D40" t="n">
-        <v>68.5526853478658</v>
+        <v>474.199467195905</v>
       </c>
       <c r="E40" t="n">
-        <v>68.5526853478658</v>
+        <v>474.199467195905</v>
       </c>
       <c r="F40" t="n">
-        <v>68.5526853478658</v>
+        <v>321.7188122216821</v>
       </c>
       <c r="G40" t="n">
-        <v>68.5526853478658</v>
+        <v>153.3190188394784</v>
       </c>
       <c r="H40" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="I40" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J40" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="K40" t="n">
         <v>161.36407341285</v>
       </c>
       <c r="L40" t="n">
-        <v>337.7359848975268</v>
+        <v>337.7359848975267</v>
       </c>
       <c r="M40" t="n">
-        <v>535.6128834448184</v>
+        <v>535.6128834448182</v>
       </c>
       <c r="N40" t="n">
-        <v>732.0191690905297</v>
+        <v>732.0191690905294</v>
       </c>
       <c r="O40" t="n">
-        <v>902.5136098413569</v>
+        <v>902.5136098413567</v>
       </c>
       <c r="P40" t="n">
         <v>1027.116881758995</v>
@@ -7356,28 +7356,28 @@
         <v>1032.019166068125</v>
       </c>
       <c r="R40" t="n">
-        <v>905.8764634664545</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="S40" t="n">
-        <v>701.2281028169343</v>
+        <v>827.3708054186045</v>
       </c>
       <c r="T40" t="n">
-        <v>470.2707766096567</v>
+        <v>827.3708054186045</v>
       </c>
       <c r="U40" t="n">
-        <v>354.7090868304667</v>
+        <v>827.3708054186045</v>
       </c>
       <c r="V40" t="n">
-        <v>354.7090868304667</v>
+        <v>827.3708054186045</v>
       </c>
       <c r="W40" t="n">
-        <v>68.5526853478658</v>
+        <v>827.3708054186045</v>
       </c>
       <c r="X40" t="n">
-        <v>68.5526853478658</v>
+        <v>827.3708054186045</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.5526853478658</v>
+        <v>827.3708054186045</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1305.400632917527</v>
+        <v>2047.192154880486</v>
       </c>
       <c r="C41" t="n">
-        <v>1305.400632917527</v>
+        <v>1665.258396213294</v>
       </c>
       <c r="D41" t="n">
-        <v>932.5766681447501</v>
+        <v>1292.434431440517</v>
       </c>
       <c r="E41" t="n">
-        <v>932.5766681447501</v>
+        <v>897.6487115466239</v>
       </c>
       <c r="F41" t="n">
-        <v>932.5766681447501</v>
+        <v>483.4975208567942</v>
       </c>
       <c r="G41" t="n">
-        <v>517.6318326358218</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="H41" t="n">
-        <v>196.6817137896151</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="I41" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J41" t="n">
-        <v>236.9749331805681</v>
+        <v>236.9749331805676</v>
       </c>
       <c r="K41" t="n">
-        <v>621.6294415950431</v>
+        <v>621.6294415950427</v>
       </c>
       <c r="L41" t="n">
         <v>1148.797379660662</v>
       </c>
       <c r="M41" t="n">
-        <v>1741.522943506783</v>
+        <v>1741.522943506782</v>
       </c>
       <c r="N41" t="n">
         <v>2322.568598257194</v>
       </c>
       <c r="O41" t="n">
-        <v>2818.990544201361</v>
+        <v>2818.99054420136</v>
       </c>
       <c r="P41" t="n">
         <v>3210.517730076022</v>
@@ -7435,28 +7435,28 @@
         <v>3427.63426739329</v>
       </c>
       <c r="R41" t="n">
-        <v>3409.809502209782</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="S41" t="n">
-        <v>3248.994681093121</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="T41" t="n">
-        <v>3029.70991848809</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="U41" t="n">
-        <v>2837.551098480613</v>
+        <v>3216.807690301174</v>
       </c>
       <c r="V41" t="n">
-        <v>2837.551098480613</v>
+        <v>3216.807690301174</v>
       </c>
       <c r="W41" t="n">
-        <v>2475.016168338214</v>
+        <v>3216.807690301174</v>
       </c>
       <c r="X41" t="n">
-        <v>2092.986027859708</v>
+        <v>2834.777549822667</v>
       </c>
       <c r="Y41" t="n">
-        <v>1699.444172435546</v>
+        <v>2441.235694398506</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1840.868797869529</v>
+        <v>919.9020206238073</v>
       </c>
       <c r="C42" t="n">
-        <v>1679.165125110484</v>
+        <v>758.198347864762</v>
       </c>
       <c r="D42" t="n">
-        <v>1540.326488100696</v>
+        <v>619.3597108549741</v>
       </c>
       <c r="E42" t="n">
-        <v>1393.298478157567</v>
+        <v>472.3317009118452</v>
       </c>
       <c r="F42" t="n">
-        <v>1258.604680107442</v>
+        <v>337.6379028617196</v>
       </c>
       <c r="G42" t="n">
-        <v>1130.496380612395</v>
+        <v>209.5296033666726</v>
       </c>
       <c r="H42" t="n">
-        <v>1036.548354126785</v>
+        <v>115.581576881063</v>
       </c>
       <c r="I42" t="n">
-        <v>989.5194625935879</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J42" t="n">
-        <v>1107.202906398469</v>
+        <v>186.2361291527469</v>
       </c>
       <c r="K42" t="n">
-        <v>1434.849275200009</v>
+        <v>513.8824979542864</v>
       </c>
       <c r="L42" t="n">
-        <v>1455.382204081151</v>
+        <v>1011.686951240981</v>
       </c>
       <c r="M42" t="n">
-        <v>1803.279578533123</v>
+        <v>1650.737783205802</v>
       </c>
       <c r="N42" t="n">
-        <v>2472.639087472223</v>
+        <v>1703.183656364749</v>
       </c>
       <c r="O42" t="n">
-        <v>3009.464036589876</v>
+        <v>1853.133026253341</v>
       </c>
       <c r="P42" t="n">
-        <v>3427.63426739329</v>
+        <v>2271.303257056754</v>
       </c>
       <c r="Q42" t="n">
-        <v>3427.63426739329</v>
+        <v>2506.667490147568</v>
       </c>
       <c r="R42" t="n">
-        <v>3406.356831902702</v>
+        <v>2485.39005465698</v>
       </c>
       <c r="S42" t="n">
-        <v>3265.077296844678</v>
+        <v>2344.110519598956</v>
       </c>
       <c r="T42" t="n">
-        <v>3078.892036180195</v>
+        <v>2157.925258934473</v>
       </c>
       <c r="U42" t="n">
-        <v>2860.438046441773</v>
+        <v>1939.471269196051</v>
       </c>
       <c r="V42" t="n">
-        <v>2632.042423890107</v>
+        <v>1711.075646644385</v>
       </c>
       <c r="W42" t="n">
-        <v>2390.726555123417</v>
+        <v>1469.759777877695</v>
       </c>
       <c r="X42" t="n">
-        <v>2192.809567001211</v>
+        <v>1271.842789755489</v>
       </c>
       <c r="Y42" t="n">
-        <v>2000.28824065079</v>
+        <v>1079.321463405068</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2939.798005391569</v>
+        <v>391.7022490921817</v>
       </c>
       <c r="C43" t="n">
-        <v>2939.798005391569</v>
+        <v>391.7022490921817</v>
       </c>
       <c r="D43" t="n">
-        <v>2939.798005391569</v>
+        <v>391.7022490921817</v>
       </c>
       <c r="E43" t="n">
-        <v>2939.798005391569</v>
+        <v>391.7022490921817</v>
       </c>
       <c r="F43" t="n">
-        <v>2787.317350417346</v>
+        <v>391.7022490921817</v>
       </c>
       <c r="G43" t="n">
-        <v>2618.917557035143</v>
+        <v>223.3024557099781</v>
       </c>
       <c r="H43" t="n">
-        <v>2464.16778667303</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="I43" t="n">
-        <v>2464.16778667303</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J43" t="n">
-        <v>2464.16778667303</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="K43" t="n">
-        <v>2556.979174738015</v>
+        <v>161.36407341285</v>
       </c>
       <c r="L43" t="n">
-        <v>2733.351086222691</v>
+        <v>337.7359848975267</v>
       </c>
       <c r="M43" t="n">
-        <v>2931.227984769983</v>
+        <v>535.6128834448182</v>
       </c>
       <c r="N43" t="n">
-        <v>3127.634270415694</v>
+        <v>732.0191690905294</v>
       </c>
       <c r="O43" t="n">
-        <v>3298.128711166521</v>
+        <v>902.5136098413567</v>
       </c>
       <c r="P43" t="n">
-        <v>3422.73198308416</v>
+        <v>1027.116881758995</v>
       </c>
       <c r="Q43" t="n">
-        <v>3427.63426739329</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="R43" t="n">
-        <v>3427.63426739329</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="S43" t="n">
-        <v>3222.98590674377</v>
+        <v>827.3708054186045</v>
       </c>
       <c r="T43" t="n">
-        <v>3222.98590674377</v>
+        <v>622.954713196806</v>
       </c>
       <c r="U43" t="n">
-        <v>3222.98590674377</v>
+        <v>622.954713196806</v>
       </c>
       <c r="V43" t="n">
-        <v>2962.250602302192</v>
+        <v>622.954713196806</v>
       </c>
       <c r="W43" t="n">
-        <v>2962.250602302192</v>
+        <v>622.954713196806</v>
       </c>
       <c r="X43" t="n">
-        <v>2962.250602302192</v>
+        <v>391.7022490921817</v>
       </c>
       <c r="Y43" t="n">
-        <v>2962.250602302192</v>
+        <v>391.7022490921817</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1285.887158339581</v>
+        <v>1842.411306652885</v>
       </c>
       <c r="C44" t="n">
-        <v>1285.887158339581</v>
+        <v>1460.477547985692</v>
       </c>
       <c r="D44" t="n">
-        <v>913.063193566805</v>
+        <v>1087.653583212916</v>
       </c>
       <c r="E44" t="n">
-        <v>804.4476397030008</v>
+        <v>692.8678633190227</v>
       </c>
       <c r="F44" t="n">
-        <v>804.4476397030008</v>
+        <v>278.7166726291931</v>
       </c>
       <c r="G44" t="n">
-        <v>389.5028041940724</v>
+        <v>278.7166726291931</v>
       </c>
       <c r="H44" t="n">
-        <v>68.5526853478658</v>
+        <v>196.6817137896151</v>
       </c>
       <c r="I44" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J44" t="n">
         <v>236.9749331805679</v>
@@ -7672,28 +7672,28 @@
         <v>3427.63426739329</v>
       </c>
       <c r="R44" t="n">
-        <v>3409.809502209782</v>
+        <v>3427.63426739329</v>
       </c>
       <c r="S44" t="n">
-        <v>3409.809502209782</v>
+        <v>3266.819446276628</v>
       </c>
       <c r="T44" t="n">
-        <v>3409.809502209782</v>
+        <v>3266.819446276628</v>
       </c>
       <c r="U44" t="n">
-        <v>3155.016898006727</v>
+        <v>3012.026842073573</v>
       </c>
       <c r="V44" t="n">
-        <v>2818.037623902668</v>
+        <v>3012.026842073573</v>
       </c>
       <c r="W44" t="n">
-        <v>2455.502693760269</v>
+        <v>3012.026842073573</v>
       </c>
       <c r="X44" t="n">
-        <v>2073.472553281762</v>
+        <v>2629.996701595066</v>
       </c>
       <c r="Y44" t="n">
-        <v>1679.930697857601</v>
+        <v>2236.454846170904</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>115.581576881063</v>
       </c>
       <c r="I45" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J45" t="n">
-        <v>68.5526853478658</v>
+        <v>186.2361291527469</v>
       </c>
       <c r="K45" t="n">
-        <v>396.1990541494053</v>
+        <v>186.2361291527469</v>
       </c>
       <c r="L45" t="n">
-        <v>416.7319830305476</v>
+        <v>684.0405824394411</v>
       </c>
       <c r="M45" t="n">
-        <v>1055.782814995369</v>
+        <v>1323.091414404263</v>
       </c>
       <c r="N45" t="n">
-        <v>1316.308077135687</v>
+        <v>1961.533893466101</v>
       </c>
       <c r="O45" t="n">
-        <v>1853.13302625334</v>
+        <v>2498.358842583754</v>
       </c>
       <c r="P45" t="n">
-        <v>2271.303257056754</v>
+        <v>2506.667490147568</v>
       </c>
       <c r="Q45" t="n">
         <v>2506.667490147568</v>
@@ -7782,46 +7782,46 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>366.7352268578477</v>
+        <v>528.8550038564382</v>
       </c>
       <c r="C46" t="n">
-        <v>197.119257319528</v>
+        <v>528.8550038564382</v>
       </c>
       <c r="D46" t="n">
-        <v>197.119257319528</v>
+        <v>375.7831106842009</v>
       </c>
       <c r="E46" t="n">
-        <v>197.119257319528</v>
+        <v>375.7831106842009</v>
       </c>
       <c r="F46" t="n">
-        <v>197.119257319528</v>
+        <v>223.3024557099781</v>
       </c>
       <c r="G46" t="n">
-        <v>197.119257319528</v>
+        <v>223.3024557099781</v>
       </c>
       <c r="H46" t="n">
-        <v>197.119257319528</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="I46" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="J46" t="n">
-        <v>68.5526853478658</v>
+        <v>68.55268534786579</v>
       </c>
       <c r="K46" t="n">
         <v>161.36407341285</v>
       </c>
       <c r="L46" t="n">
-        <v>337.7359848975268</v>
+        <v>337.7359848975267</v>
       </c>
       <c r="M46" t="n">
-        <v>535.6128834448184</v>
+        <v>535.6128834448182</v>
       </c>
       <c r="N46" t="n">
-        <v>732.0191690905297</v>
+        <v>732.0191690905294</v>
       </c>
       <c r="O46" t="n">
-        <v>902.5136098413569</v>
+        <v>902.5136098413567</v>
       </c>
       <c r="P46" t="n">
         <v>1027.116881758995</v>
@@ -7830,28 +7830,28 @@
         <v>1032.019166068125</v>
       </c>
       <c r="R46" t="n">
-        <v>905.8764634664545</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="S46" t="n">
-        <v>701.2281028169343</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="T46" t="n">
-        <v>701.2281028169343</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="U46" t="n">
-        <v>701.2281028169343</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="V46" t="n">
-        <v>701.2281028169343</v>
+        <v>1032.019166068125</v>
       </c>
       <c r="W46" t="n">
-        <v>701.2281028169343</v>
+        <v>745.8627645855238</v>
       </c>
       <c r="X46" t="n">
-        <v>701.2281028169343</v>
+        <v>528.8550038564382</v>
       </c>
       <c r="Y46" t="n">
-        <v>479.1929440092114</v>
+        <v>528.8550038564382</v>
       </c>
     </row>
   </sheetData>
@@ -8057,16 +8057,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K3" t="n">
-        <v>343.8048081163522</v>
+        <v>114.7960015863129</v>
       </c>
       <c r="L3" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M3" t="n">
-        <v>156.1797194573845</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N3" t="n">
         <v>623.1450866466196</v>
@@ -8078,7 +8078,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q3" t="n">
-        <v>273.1004740566038</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8294,19 +8294,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>343.8048081163522</v>
+        <v>324.9477342979506</v>
       </c>
       <c r="L6" t="n">
-        <v>482.0924488944969</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M6" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N6" t="n">
-        <v>173.9082232290041</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O6" t="n">
         <v>512.0210150597484</v>
@@ -8537,7 +8537,7 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L9" t="n">
-        <v>253.0836423644577</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M9" t="n">
         <v>605.4165828749999</v>
@@ -8549,10 +8549,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P9" t="n">
-        <v>414.0015992319183</v>
+        <v>395.1445254135168</v>
       </c>
       <c r="Q9" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8783,10 +8783,10 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>450.0846164268631</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P12" t="n">
-        <v>414.0015992319183</v>
+        <v>352.065200599033</v>
       </c>
       <c r="Q12" t="n">
         <v>87.64858173562192</v>
@@ -9005,16 +9005,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>83.74785933339987</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L15" t="n">
-        <v>482.0924488944969</v>
+        <v>420.1560502616115</v>
       </c>
       <c r="M15" t="n">
-        <v>277.8578053120004</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
         <v>623.1450866466196</v>
@@ -9026,7 +9026,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.1004740566038</v>
+        <v>87.64858173562192</v>
       </c>
       <c r="R15" t="n">
         <v>59.17817075471706</v>
@@ -9254,10 +9254,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>623.1450866466196</v>
+        <v>295.5863090836201</v>
       </c>
       <c r="O18" t="n">
-        <v>184.4622374967487</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
         <v>414.0015992319183</v>
@@ -9479,7 +9479,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>83.74785933339987</v>
       </c>
       <c r="K21" t="n">
         <v>343.8048081163522</v>
@@ -9488,19 +9488,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M21" t="n">
-        <v>605.4165828749999</v>
+        <v>543.4801842421141</v>
       </c>
       <c r="N21" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O21" t="n">
-        <v>184.4622374967487</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P21" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>273.1004740566038</v>
+        <v>87.64858173562192</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9716,16 +9716,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J24" t="n">
-        <v>45.04618048305561</v>
+        <v>45.04618048305563</v>
       </c>
       <c r="K24" t="n">
-        <v>343.8048081163522</v>
+        <v>100.4917223851191</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>430.1943468063448</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N24" t="n">
         <v>623.1450866466196</v>
@@ -9734,10 +9734,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>414.0015992319183</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>35.35882446992305</v>
+        <v>35.35882446992306</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9953,28 +9953,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>45.04618048305561</v>
+        <v>45.04618048305563</v>
       </c>
       <c r="K27" t="n">
-        <v>343.8048081163522</v>
+        <v>198.5111382129485</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N27" t="n">
-        <v>210.1812009912834</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O27" t="n">
-        <v>512.0210150597484</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>273.1004740566038</v>
+        <v>35.35882446992306</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10199,13 +10199,13 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N30" t="n">
-        <v>214.6331695123104</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>512.0210150597484</v>
+        <v>121.2376016970597</v>
       </c>
       <c r="P30" t="n">
         <v>414.0015992319183</v>
@@ -10427,19 +10427,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>45.04618048305561</v>
+        <v>45.04618048305563</v>
       </c>
       <c r="K33" t="n">
-        <v>343.8048081163522</v>
+        <v>12.84888003398906</v>
       </c>
       <c r="L33" t="n">
-        <v>482.0924488944969</v>
+        <v>155.7336920137084</v>
       </c>
       <c r="M33" t="n">
-        <v>333.5053349717864</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O33" t="n">
         <v>512.0210150597484</v>
@@ -10448,7 +10448,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>273.1004740566038</v>
+        <v>35.35882446992306</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10664,16 +10664,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J36" t="n">
-        <v>163.9183459425315</v>
+        <v>45.04618048305563</v>
       </c>
       <c r="K36" t="n">
-        <v>343.8048081163522</v>
+        <v>12.84888003398906</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>605.4165828749999</v>
+        <v>523.4086253020276</v>
       </c>
       <c r="N36" t="n">
         <v>623.1450866466196</v>
@@ -10682,10 +10682,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q36" t="n">
-        <v>155.26602217371</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10901,10 +10901,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425315</v>
+        <v>45.04618048305563</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>100.4917223851191</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
@@ -10913,7 +10913,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>23.21818586922865</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>273.1004740566038</v>
+        <v>35.35882446992306</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11144,22 +11144,22 @@
         <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M42" t="n">
-        <v>311.3221813468688</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N42" t="n">
-        <v>623.1450866466196</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>512.0210150597484</v>
+        <v>121.2376016970599</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>35.35882446992305</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11302,7 +11302,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L44" t="n">
-        <v>542.9595789155858</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
         <v>584.3675935406823</v>
@@ -11317,7 +11317,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
-        <v>276.0094878578761</v>
+        <v>276.009487857876</v>
       </c>
       <c r="R44" t="n">
         <v>85.43134583487716</v>
@@ -11375,28 +11375,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>45.04618048305561</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K45" t="n">
-        <v>343.8048081163522</v>
+        <v>12.84888003398909</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>210.1812009912834</v>
+        <v>591.9157635382739</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>414.0015992319183</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>273.1004740566038</v>
+        <v>35.35882446992308</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -23260,22 +23260,22 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C11" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>325.5814052293737</v>
       </c>
       <c r="I11" t="n">
         <v>156.363858050434</v>
@@ -23305,10 +23305,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.73916953180444</v>
+        <v>3.417334705824238</v>
       </c>
       <c r="S11" t="n">
-        <v>176.6529755334452</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>220.4433659829895</v>
@@ -23317,16 +23317,16 @@
         <v>252.305926837283</v>
       </c>
       <c r="V11" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>207.9784067573772</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="12">
@@ -23433,13 +23433,13 @@
         <v>167.0592210434877</v>
       </c>
       <c r="H13" t="n">
-        <v>31.41657117931918</v>
+        <v>156.2556384040709</v>
       </c>
       <c r="I13" t="n">
         <v>137.6086505120454</v>
       </c>
       <c r="J13" t="n">
-        <v>47.34362796447564</v>
+        <v>47.34362796447565</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23469,13 +23469,13 @@
         <v>208.5868485504649</v>
       </c>
       <c r="T13" t="n">
-        <v>230.1151168515673</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>105.2760496268156</v>
       </c>
       <c r="W13" t="n">
         <v>283.2948374677749</v>
@@ -23497,16 +23497,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>236.3572914867356</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>281.6932191055291</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G14" t="n">
         <v>411.5609956070679</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.73916953180444</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R16" t="n">
         <v>140.32293915197</v>
@@ -23706,10 +23706,10 @@
         <v>208.5868485504649</v>
       </c>
       <c r="T16" t="n">
-        <v>35.39926125678087</v>
+        <v>76.088037693232</v>
       </c>
       <c r="U16" t="n">
-        <v>284.3089918374816</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>258.1279513971616</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="17">
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C17" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H17" t="n">
         <v>325.5814052293737</v>
@@ -23785,22 +23785,22 @@
         <v>176.6529755334452</v>
       </c>
       <c r="T17" t="n">
-        <v>28.14729085612311</v>
+        <v>38.69693695550015</v>
       </c>
       <c r="U17" t="n">
         <v>252.305926837283</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="18">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>147.6625840780576</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C19" t="n">
         <v>167.9198098429365</v>
@@ -23937,22 +23937,22 @@
         <v>23.80540818138466</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>54.72079241041223</v>
       </c>
       <c r="T19" t="n">
-        <v>230.1151168515673</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>284.3089918374816</v>
       </c>
       <c r="V19" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>228.939939463578</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>378.1144210805207</v>
@@ -23980,16 +23980,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>102.9720449322676</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>156.363858050434</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>378.2098390737216</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>361.7051547666096</v>
       </c>
     </row>
     <row r="21">
@@ -24171,16 +24171,16 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>208.5868485504649</v>
       </c>
       <c r="T22" t="n">
-        <v>230.1151168515673</v>
+        <v>75.07388332352528</v>
       </c>
       <c r="U22" t="n">
         <v>284.3089918374816</v>
@@ -24189,13 +24189,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>154.1939321076484</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -24208,25 +24208,25 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.7953871538391</v>
       </c>
       <c r="H23" t="n">
-        <v>317.7406176577446</v>
+        <v>208.6895909828965</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>126.8477381573318</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,16 +24259,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>217.0919149789806</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>252.2446781610247</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>99.61844762880247</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
@@ -24372,7 +24372,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>150.9558484244806</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>124.8812755756538</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>202.601877043025</v>
       </c>
       <c r="T25" t="n">
         <v>228.6477529452049</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>45.67640968588353</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.00307927906962</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="26">
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.1031041228389</v>
+        <v>232.0669900167761</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
         <v>369.0957251250487</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>17.64651753167261</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -24508,10 +24508,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>191.0351916465862</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24612,13 +24612,13 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F28" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.7157954483816</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>153.2022726584912</v>
+        <v>84.62719761836615</v>
       </c>
       <c r="I28" t="n">
         <v>127.2809062519456</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>124.8812755756538</v>
       </c>
       <c r="S28" t="n">
         <v>202.601877043025</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>216.5773152794733</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="29">
@@ -24685,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>327.9270372015823</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>317.7406176577446</v>
+        <v>98.83616205247657</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>126.8477381573318</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>17.64651753167263</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>159.2066729054946</v>
       </c>
       <c r="T29" t="n">
         <v>217.0919149789806</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>252.2446781610247</v>
       </c>
       <c r="V29" t="n">
         <v>333.6094813630181</v>
@@ -24745,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
-        <v>166.7157954483816</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>153.2022726584912</v>
+        <v>107.9642041348935</v>
       </c>
       <c r="I31" t="n">
         <v>127.2809062519456</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>124.8812755756538</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>202.601877043025</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>144.7173005802827</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W31" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X31" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>219.8148072196457</v>
@@ -24922,19 +24922,19 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F32" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.7953871538391</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>317.7406176577446</v>
       </c>
       <c r="I32" t="n">
         <v>126.8477381573318</v>
@@ -24964,19 +24964,19 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>17.64651753167263</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>159.2066729054946</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.0919149789806</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>11.5980849858513</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>257.8303610558963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E34" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G34" t="n">
-        <v>166.7157954483816</v>
+        <v>144.5543449786952</v>
       </c>
       <c r="H34" t="n">
         <v>153.2022726584912</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>123.8352385347937</v>
+        <v>124.8812755756538</v>
       </c>
       <c r="S34" t="n">
-        <v>202.601877043025</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>228.6477529452049</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>284.290259532294</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W34" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X34" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>219.8148072196457</v>
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>410.7953871538391</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>317.7406176577446</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>126.8477381573318</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>17.64651753167263</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>360.2855664651571</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>271.0292466877295</v>
       </c>
     </row>
     <row r="36">
@@ -25314,7 +25314,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C37" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>151.5411742405149</v>
@@ -25362,19 +25362,19 @@
         <v>124.8812755756538</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>202.601877043025</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>228.6477529452049</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>19.83602500462879</v>
+        <v>39.80104232711085</v>
       </c>
       <c r="W37" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>228.939939463578</v>
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>68.37574713092957</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,13 +25450,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
-        <v>329.8777515542009</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>181.719814997536</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
@@ -25560,13 +25560,13 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.7157954483816</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>153.2022726584912</v>
+        <v>69.28360250179466</v>
       </c>
       <c r="I40" t="n">
         <v>127.2809062519456</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>124.8812755756538</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>228.6477529452049</v>
       </c>
       <c r="U40" t="n">
-        <v>169.8841866508959</v>
+        <v>284.290259532294</v>
       </c>
       <c r="V40" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X40" t="n">
         <v>228.939939463578</v>
@@ -25630,25 +25630,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>317.7406176577446</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>126.8477381573318</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,22 +25675,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>17.64651753167264</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>159.2066729054946</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.0919149789806</v>
       </c>
       <c r="U41" t="n">
-        <v>62.0074463536229</v>
+        <v>43.52636683983064</v>
       </c>
       <c r="V41" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>159.4917440560192</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C43" t="n">
         <v>167.9198098429365</v>
@@ -25797,7 +25797,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25809,7 +25809,7 @@
         <v>127.2809062519456</v>
       </c>
       <c r="J43" t="n">
-        <v>23.0634383904742</v>
+        <v>23.06343839047421</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25839,19 +25839,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>228.6477529452049</v>
+        <v>26.27582164562438</v>
       </c>
       <c r="U43" t="n">
         <v>284.290259532294</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X43" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>219.8148072196457</v>
@@ -25867,25 +25867,25 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>283.3084643697881</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.7953871538391</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>236.5260084065624</v>
       </c>
       <c r="I44" t="n">
-        <v>126.8477381573318</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>17.64651753167264</v>
       </c>
       <c r="S44" t="n">
-        <v>159.2066729054945</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>217.0919149789806</v>
@@ -25924,10 +25924,10 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26022,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>70.38667501768599</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.7157954483816</v>
       </c>
       <c r="H46" t="n">
-        <v>153.2022726584912</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>127.2809062519456</v>
       </c>
       <c r="J46" t="n">
-        <v>23.0634383904742</v>
+        <v>23.06343839047421</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>124.8812755756538</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>202.601877043025</v>
       </c>
       <c r="T46" t="n">
         <v>228.6477529452049</v>
@@ -26085,13 +26085,13 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>228.939939463578</v>
+        <v>14.10225634178326</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
   </sheetData>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>565454.4347998351</v>
+        <v>565454.4347998349</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>565454.434799835</v>
+        <v>565454.4347998351</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>565454.4347998349</v>
+        <v>565454.4347998351</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>656208.2552600413</v>
+        <v>656208.2552600412</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>656208.2552600414</v>
+        <v>656208.2552600412</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>656208.2552600412</v>
+        <v>656208.2552600414</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>656208.2552600414</v>
+        <v>656208.2552600413</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>656208.2552600414</v>
+        <v>656208.2552600412</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>656208.2552600416</v>
+        <v>656208.2552600412</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>656208.2552600414</v>
+        <v>656208.2552600416</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>518146.2408335729</v>
       </c>
       <c r="C2" t="n">
-        <v>518146.2408335725</v>
+        <v>518146.2408335728</v>
       </c>
       <c r="D2" t="n">
-        <v>518146.2408335726</v>
+        <v>518146.2408335723</v>
       </c>
       <c r="E2" t="n">
         <v>340821.0813116257</v>
@@ -26328,7 +26328,7 @@
         <v>340821.0813116257</v>
       </c>
       <c r="G2" t="n">
-        <v>340821.0813116256</v>
+        <v>340821.0813116257</v>
       </c>
       <c r="H2" t="n">
         <v>340821.0813116257</v>
@@ -26340,22 +26340,22 @@
         <v>398719.7081799604</v>
       </c>
       <c r="K2" t="n">
+        <v>398719.7081799605</v>
+      </c>
+      <c r="L2" t="n">
+        <v>398719.7081799605</v>
+      </c>
+      <c r="M2" t="n">
+        <v>398719.7081799605</v>
+      </c>
+      <c r="N2" t="n">
         <v>398719.7081799604</v>
-      </c>
-      <c r="L2" t="n">
-        <v>398719.7081799603</v>
-      </c>
-      <c r="M2" t="n">
-        <v>398719.7081799606</v>
-      </c>
-      <c r="N2" t="n">
-        <v>398719.7081799606</v>
       </c>
       <c r="O2" t="n">
         <v>398719.7081799604</v>
       </c>
       <c r="P2" t="n">
-        <v>398719.7081799607</v>
+        <v>398719.7081799606</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>202188.2862928658</v>
+        <v>202188.2862928657</v>
       </c>
       <c r="J3" t="n">
         <v>137442.4307917771</v>
@@ -26420,16 +26420,16 @@
         <v>208183.1070948236</v>
       </c>
       <c r="C4" t="n">
+        <v>208183.1070948236</v>
+      </c>
+      <c r="D4" t="n">
         <v>208183.1070948235</v>
-      </c>
-      <c r="D4" t="n">
-        <v>208183.1070948236</v>
       </c>
       <c r="E4" t="n">
         <v>23150.42819261375</v>
       </c>
       <c r="F4" t="n">
-        <v>23150.42819261375</v>
+        <v>23150.42819261376</v>
       </c>
       <c r="G4" t="n">
         <v>23150.42819261375</v>
@@ -26490,28 +26490,28 @@
         <v>40720.20246230467</v>
       </c>
       <c r="I5" t="n">
-        <v>58322.9692867859</v>
+        <v>58322.96928678589</v>
       </c>
       <c r="J5" t="n">
-        <v>58322.9692867859</v>
+        <v>58322.96928678589</v>
       </c>
       <c r="K5" t="n">
-        <v>58322.9692867859</v>
+        <v>58322.96928678589</v>
       </c>
       <c r="L5" t="n">
-        <v>58322.9692867859</v>
+        <v>58322.96928678589</v>
       </c>
       <c r="M5" t="n">
-        <v>58322.9692867859</v>
+        <v>58322.96928678589</v>
       </c>
       <c r="N5" t="n">
-        <v>58322.9692867859</v>
+        <v>58322.96928678589</v>
       </c>
       <c r="O5" t="n">
-        <v>58322.9692867859</v>
+        <v>58322.96928678589</v>
       </c>
       <c r="P5" t="n">
-        <v>58322.9692867859</v>
+        <v>58322.96928678589</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>68355.9143843106</v>
       </c>
       <c r="C6" t="n">
-        <v>244397.0991018375</v>
+        <v>244397.0991018378</v>
       </c>
       <c r="D6" t="n">
-        <v>244397.0991018377</v>
+        <v>244397.0991018374</v>
       </c>
       <c r="E6" t="n">
-        <v>167664.584007406</v>
+        <v>161096.9855065932</v>
       </c>
       <c r="F6" t="n">
-        <v>276950.4506567073</v>
+        <v>270382.8521558944</v>
       </c>
       <c r="G6" t="n">
-        <v>276950.4506567072</v>
+        <v>270382.8521558944</v>
       </c>
       <c r="H6" t="n">
-        <v>276950.4506567072</v>
+        <v>270382.8521558944</v>
       </c>
       <c r="I6" t="n">
-        <v>116401.4599610927</v>
+        <v>111978.2550479961</v>
       </c>
       <c r="J6" t="n">
-        <v>181147.3154621813</v>
+        <v>176724.1105490846</v>
       </c>
       <c r="K6" t="n">
-        <v>318589.7462539584</v>
+        <v>314166.5413408619</v>
       </c>
       <c r="L6" t="n">
-        <v>318589.7462539584</v>
+        <v>314166.5413408619</v>
       </c>
       <c r="M6" t="n">
-        <v>291084.9095970622</v>
+        <v>286661.7046839654</v>
       </c>
       <c r="N6" t="n">
-        <v>318589.7462539587</v>
+        <v>314166.5413408618</v>
       </c>
       <c r="O6" t="n">
-        <v>318589.7462539584</v>
+        <v>314166.5413408618</v>
       </c>
       <c r="P6" t="n">
-        <v>318589.7462539588</v>
+        <v>314166.5413408619</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95.01032947988872</v>
+        <v>95.01032947988871</v>
       </c>
       <c r="F3" t="n">
         <v>95.01032947988871</v>
@@ -26776,10 +26776,10 @@
         <v>285.4554322205456</v>
       </c>
       <c r="O3" t="n">
-        <v>285.4554322205456</v>
+        <v>285.4554322205455</v>
       </c>
       <c r="P3" t="n">
-        <v>285.4554322205456</v>
+        <v>285.4554322205455</v>
       </c>
     </row>
     <row r="4">
@@ -26810,28 +26810,28 @@
         <v>635.6739684151826</v>
       </c>
       <c r="I4" t="n">
-        <v>856.9085668483225</v>
+        <v>856.9085668483224</v>
       </c>
       <c r="J4" t="n">
-        <v>856.9085668483225</v>
+        <v>856.9085668483224</v>
       </c>
       <c r="K4" t="n">
-        <v>856.9085668483225</v>
+        <v>856.9085668483224</v>
       </c>
       <c r="L4" t="n">
-        <v>856.9085668483225</v>
+        <v>856.9085668483224</v>
       </c>
       <c r="M4" t="n">
-        <v>856.9085668483225</v>
+        <v>856.9085668483224</v>
       </c>
       <c r="N4" t="n">
-        <v>856.9085668483225</v>
+        <v>856.9085668483224</v>
       </c>
       <c r="O4" t="n">
-        <v>856.9085668483225</v>
+        <v>856.9085668483224</v>
       </c>
       <c r="P4" t="n">
-        <v>856.9085668483225</v>
+        <v>856.9085668483224</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>95.01032947988872</v>
+        <v>95.01032947988871</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>221.2345984331399</v>
+        <v>221.2345984331398</v>
       </c>
       <c r="J4" t="n">
-        <v>525.3032012649902</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>378.1144210805207</v>
+        <v>90.47878994440435</v>
       </c>
       <c r="D2" t="n">
         <v>369.0957251250487</v>
@@ -27393,10 +27393,10 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>315.6039785144797</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27460,7 +27460,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27505,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>57.60636999204326</v>
       </c>
       <c r="V3" t="n">
-        <v>98.8380868486705</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C4" t="n">
         <v>167.9198098429365</v>
@@ -27548,7 +27548,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G4" t="n">
         <v>167.2305511458285</v>
@@ -27581,16 +27581,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>230.8471636524779</v>
+        <v>63.70773940111974</v>
       </c>
       <c r="U4" t="n">
         <v>284.3183371157911</v>
@@ -27605,7 +27605,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y4" t="n">
-        <v>211.9303493528027</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>312.5779919627051</v>
-      </c>
       <c r="H5" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>110.9832044235801</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T5" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W5" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="6">
@@ -27694,25 +27694,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>93.73058256319007</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I6" t="n">
         <v>67.69846245683961</v>
@@ -27745,7 +27745,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>150.7753491458101</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27776,13 +27776,13 @@
         <v>181.719814997536</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D7" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>150.9558484244806</v>
@@ -27797,7 +27797,7 @@
         <v>142.7610139533483</v>
       </c>
       <c r="J7" t="n">
-        <v>59.456666199969</v>
+        <v>40.13063082198155</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>148.0265635717656</v>
@@ -27842,7 +27842,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y7" t="n">
-        <v>28.22651541493755</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>135.2951081646165</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>62.86705861421285</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>142.6678699418028</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27940,7 +27940,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>42.24092077382167</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>75.76608389262717</v>
       </c>
       <c r="G10" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>128.257138091228</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
         <v>59.456666199969</v>
@@ -28067,16 +28067,16 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y10" t="n">
         <v>219.8148072196457</v>
@@ -31755,7 +31755,7 @@
         <v>0.3819510732859845</v>
       </c>
       <c r="H11" t="n">
-        <v>3.91165642929009</v>
+        <v>3.911656429290089</v>
       </c>
       <c r="I11" t="n">
         <v>14.72516875285793</v>
@@ -31764,37 +31764,37 @@
         <v>32.41761990630636</v>
       </c>
       <c r="K11" t="n">
-        <v>48.5856088385021</v>
+        <v>48.58560883850209</v>
       </c>
       <c r="L11" t="n">
-        <v>60.27474399757806</v>
+        <v>60.27474399757805</v>
       </c>
       <c r="M11" t="n">
-        <v>67.06726639712768</v>
+        <v>67.06726639712767</v>
       </c>
       <c r="N11" t="n">
-        <v>68.1524848841015</v>
+        <v>68.15248488410148</v>
       </c>
       <c r="O11" t="n">
-        <v>64.35445889911398</v>
+        <v>64.35445889911396</v>
       </c>
       <c r="P11" t="n">
         <v>54.92504177736622</v>
       </c>
       <c r="Q11" t="n">
-        <v>41.24641896531189</v>
+        <v>41.24641896531188</v>
       </c>
       <c r="R11" t="n">
-        <v>23.99273410730075</v>
+        <v>23.99273410730074</v>
       </c>
       <c r="S11" t="n">
-        <v>8.703710082504381</v>
+        <v>8.703710082504379</v>
       </c>
       <c r="T11" t="n">
         <v>1.671990823309398</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03055608586287876</v>
+        <v>0.03055608586287875</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>1.973705146365236</v>
       </c>
       <c r="I12" t="n">
-        <v>7.036142324689874</v>
+        <v>7.036142324689872</v>
       </c>
       <c r="J12" t="n">
         <v>19.30771233326682</v>
@@ -31846,10 +31846,10 @@
         <v>32.99995566472701</v>
       </c>
       <c r="L12" t="n">
-        <v>44.37251283869709</v>
+        <v>44.37251283869708</v>
       </c>
       <c r="M12" t="n">
-        <v>51.78062956653935</v>
+        <v>51.78062956653934</v>
       </c>
       <c r="N12" t="n">
         <v>53.1511087530936</v>
@@ -31870,7 +31870,7 @@
         <v>3.795931559880457</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8237216301133746</v>
+        <v>0.8237216301133745</v>
       </c>
       <c r="U12" t="n">
         <v>0.01344485794526728</v>
@@ -31925,10 +31925,10 @@
         <v>19.90544279922914</v>
       </c>
       <c r="L13" t="n">
-        <v>25.47211357891968</v>
+        <v>25.47211357891967</v>
       </c>
       <c r="M13" t="n">
-        <v>26.85677231511018</v>
+        <v>26.85677231511017</v>
       </c>
       <c r="N13" t="n">
         <v>26.21817829729455</v>
@@ -31940,19 +31940,19 @@
         <v>20.72159710492523</v>
       </c>
       <c r="Q13" t="n">
-        <v>14.3465597514632</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R13" t="n">
-        <v>7.703624419795565</v>
+        <v>7.703624419795564</v>
       </c>
       <c r="S13" t="n">
-        <v>2.985816419884371</v>
+        <v>2.98581641988437</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7320468009106178</v>
+        <v>0.7320468009106177</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009345278309497261</v>
+        <v>0.00934527830949726</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32706,10 +32706,10 @@
         <v>11.75244400091924</v>
       </c>
       <c r="I23" t="n">
-        <v>44.24128864596015</v>
+        <v>44.24128864596014</v>
       </c>
       <c r="J23" t="n">
-        <v>97.3976803635318</v>
+        <v>97.39768036353179</v>
       </c>
       <c r="K23" t="n">
         <v>145.9738751209014</v>
@@ -32718,10 +32718,10 @@
         <v>181.0934999804774</v>
       </c>
       <c r="M23" t="n">
-        <v>201.5014117101342</v>
+        <v>201.5014117101341</v>
       </c>
       <c r="N23" t="n">
-        <v>204.7619152148443</v>
+        <v>204.7619152148442</v>
       </c>
       <c r="O23" t="n">
         <v>193.3508701730631</v>
@@ -32733,16 +32733,16 @@
         <v>123.9235188189204</v>
       </c>
       <c r="R23" t="n">
-        <v>72.08538610743257</v>
+        <v>72.08538610743256</v>
       </c>
       <c r="S23" t="n">
-        <v>26.15001271045502</v>
+        <v>26.15001271045501</v>
       </c>
       <c r="T23" t="n">
-        <v>5.023441827318345</v>
+        <v>5.023441827318344</v>
       </c>
       <c r="U23" t="n">
-        <v>0.09180476212118041</v>
+        <v>0.0918047621211804</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.6139984768517397</v>
+        <v>0.6139984768517396</v>
       </c>
       <c r="H24" t="n">
-        <v>5.929932658015487</v>
+        <v>5.929932658015486</v>
       </c>
       <c r="I24" t="n">
         <v>21.13985983897437</v>
       </c>
       <c r="J24" t="n">
-        <v>58.00939118361108</v>
+        <v>58.00939118361106</v>
       </c>
       <c r="K24" t="n">
-        <v>99.14728913267763</v>
+        <v>99.14728913267761</v>
       </c>
       <c r="L24" t="n">
         <v>133.3157657743218</v>
@@ -32800,7 +32800,7 @@
         <v>155.5732105601973</v>
       </c>
       <c r="N24" t="n">
-        <v>159.69077052119</v>
+        <v>159.6907705211899</v>
       </c>
       <c r="O24" t="n">
         <v>146.0858569025277</v>
@@ -32809,7 +32809,7 @@
         <v>117.2467793209256</v>
       </c>
       <c r="Q24" t="n">
-        <v>78.37636697496944</v>
+        <v>78.37636697496943</v>
       </c>
       <c r="R24" t="n">
         <v>38.12176508032118</v>
@@ -32821,7 +32821,7 @@
         <v>2.474844737836616</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04039463663498289</v>
+        <v>0.04039463663498288</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,46 +32861,46 @@
         <v>0.5147556974468854</v>
       </c>
       <c r="H25" t="n">
-        <v>4.576646110027767</v>
+        <v>4.576646110027766</v>
       </c>
       <c r="I25" t="n">
-        <v>15.48010770140271</v>
+        <v>15.4801077014027</v>
       </c>
       <c r="J25" t="n">
         <v>36.3932278094948</v>
       </c>
       <c r="K25" t="n">
-        <v>59.80525284882905</v>
+        <v>59.80525284882903</v>
       </c>
       <c r="L25" t="n">
-        <v>76.53013341860333</v>
+        <v>76.53013341860331</v>
       </c>
       <c r="M25" t="n">
-        <v>80.69029537342405</v>
+        <v>80.69029537342404</v>
       </c>
       <c r="N25" t="n">
-        <v>78.77166050112208</v>
+        <v>78.77166050112207</v>
       </c>
       <c r="O25" t="n">
-        <v>72.75837803549253</v>
+        <v>72.75837803549251</v>
       </c>
       <c r="P25" t="n">
-        <v>62.25736180757602</v>
+        <v>62.257361807576</v>
       </c>
       <c r="Q25" t="n">
-        <v>43.10377026530239</v>
+        <v>43.10377026530238</v>
       </c>
       <c r="R25" t="n">
         <v>23.14528799611177</v>
       </c>
       <c r="S25" t="n">
-        <v>8.970787927324356</v>
+        <v>8.970787927324354</v>
       </c>
       <c r="T25" t="n">
-        <v>2.199410707273056</v>
+        <v>2.199410707273055</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02807758349710288</v>
+        <v>0.02807758349710287</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32943,10 +32943,10 @@
         <v>11.75244400091924</v>
       </c>
       <c r="I26" t="n">
-        <v>44.24128864596015</v>
+        <v>44.24128864596014</v>
       </c>
       <c r="J26" t="n">
-        <v>97.3976803635318</v>
+        <v>97.39768036353179</v>
       </c>
       <c r="K26" t="n">
         <v>145.9738751209014</v>
@@ -32955,10 +32955,10 @@
         <v>181.0934999804774</v>
       </c>
       <c r="M26" t="n">
-        <v>201.5014117101342</v>
+        <v>201.5014117101341</v>
       </c>
       <c r="N26" t="n">
-        <v>204.7619152148443</v>
+        <v>204.7619152148442</v>
       </c>
       <c r="O26" t="n">
         <v>193.3508701730631</v>
@@ -32970,16 +32970,16 @@
         <v>123.9235188189204</v>
       </c>
       <c r="R26" t="n">
-        <v>72.08538610743257</v>
+        <v>72.08538610743256</v>
       </c>
       <c r="S26" t="n">
-        <v>26.15001271045502</v>
+        <v>26.15001271045501</v>
       </c>
       <c r="T26" t="n">
-        <v>5.023441827318345</v>
+        <v>5.023441827318344</v>
       </c>
       <c r="U26" t="n">
-        <v>0.09180476212118041</v>
+        <v>0.0918047621211804</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6139984768517397</v>
+        <v>0.6139984768517396</v>
       </c>
       <c r="H27" t="n">
-        <v>5.929932658015487</v>
+        <v>5.929932658015486</v>
       </c>
       <c r="I27" t="n">
         <v>21.13985983897437</v>
       </c>
       <c r="J27" t="n">
-        <v>58.00939118361108</v>
+        <v>58.00939118361106</v>
       </c>
       <c r="K27" t="n">
-        <v>99.14728913267763</v>
+        <v>99.14728913267761</v>
       </c>
       <c r="L27" t="n">
         <v>133.3157657743218</v>
@@ -33037,7 +33037,7 @@
         <v>155.5732105601973</v>
       </c>
       <c r="N27" t="n">
-        <v>159.69077052119</v>
+        <v>159.6907705211899</v>
       </c>
       <c r="O27" t="n">
         <v>146.0858569025277</v>
@@ -33046,7 +33046,7 @@
         <v>117.2467793209256</v>
       </c>
       <c r="Q27" t="n">
-        <v>78.37636697496944</v>
+        <v>78.37636697496943</v>
       </c>
       <c r="R27" t="n">
         <v>38.12176508032118</v>
@@ -33058,7 +33058,7 @@
         <v>2.474844737836616</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04039463663498289</v>
+        <v>0.04039463663498288</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,46 +33098,46 @@
         <v>0.5147556974468854</v>
       </c>
       <c r="H28" t="n">
-        <v>4.576646110027767</v>
+        <v>4.576646110027766</v>
       </c>
       <c r="I28" t="n">
-        <v>15.48010770140271</v>
+        <v>15.4801077014027</v>
       </c>
       <c r="J28" t="n">
         <v>36.3932278094948</v>
       </c>
       <c r="K28" t="n">
-        <v>59.80525284882905</v>
+        <v>59.80525284882903</v>
       </c>
       <c r="L28" t="n">
-        <v>76.53013341860333</v>
+        <v>76.53013341860331</v>
       </c>
       <c r="M28" t="n">
-        <v>80.69029537342405</v>
+        <v>80.69029537342404</v>
       </c>
       <c r="N28" t="n">
-        <v>78.77166050112208</v>
+        <v>78.77166050112207</v>
       </c>
       <c r="O28" t="n">
-        <v>72.75837803549253</v>
+        <v>72.75837803549251</v>
       </c>
       <c r="P28" t="n">
-        <v>62.25736180757602</v>
+        <v>62.257361807576</v>
       </c>
       <c r="Q28" t="n">
-        <v>43.10377026530239</v>
+        <v>43.10377026530238</v>
       </c>
       <c r="R28" t="n">
         <v>23.14528799611177</v>
       </c>
       <c r="S28" t="n">
-        <v>8.970787927324356</v>
+        <v>8.970787927324354</v>
       </c>
       <c r="T28" t="n">
-        <v>2.199410707273056</v>
+        <v>2.199410707273055</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02807758349710288</v>
+        <v>0.02807758349710287</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33180,10 +33180,10 @@
         <v>11.75244400091924</v>
       </c>
       <c r="I29" t="n">
-        <v>44.24128864596015</v>
+        <v>44.24128864596014</v>
       </c>
       <c r="J29" t="n">
-        <v>97.3976803635318</v>
+        <v>97.39768036353179</v>
       </c>
       <c r="K29" t="n">
         <v>145.9738751209014</v>
@@ -33192,10 +33192,10 @@
         <v>181.0934999804774</v>
       </c>
       <c r="M29" t="n">
-        <v>201.5014117101342</v>
+        <v>201.5014117101341</v>
       </c>
       <c r="N29" t="n">
-        <v>204.7619152148443</v>
+        <v>204.7619152148442</v>
       </c>
       <c r="O29" t="n">
         <v>193.3508701730631</v>
@@ -33207,16 +33207,16 @@
         <v>123.9235188189204</v>
       </c>
       <c r="R29" t="n">
-        <v>72.08538610743257</v>
+        <v>72.08538610743256</v>
       </c>
       <c r="S29" t="n">
-        <v>26.15001271045502</v>
+        <v>26.15001271045501</v>
       </c>
       <c r="T29" t="n">
-        <v>5.023441827318345</v>
+        <v>5.023441827318344</v>
       </c>
       <c r="U29" t="n">
-        <v>0.09180476212118041</v>
+        <v>0.0918047621211804</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6139984768517397</v>
+        <v>0.6139984768517396</v>
       </c>
       <c r="H30" t="n">
-        <v>5.929932658015487</v>
+        <v>5.929932658015486</v>
       </c>
       <c r="I30" t="n">
         <v>21.13985983897437</v>
       </c>
       <c r="J30" t="n">
-        <v>58.00939118361108</v>
+        <v>58.00939118361106</v>
       </c>
       <c r="K30" t="n">
-        <v>99.14728913267763</v>
+        <v>99.14728913267761</v>
       </c>
       <c r="L30" t="n">
         <v>133.3157657743218</v>
@@ -33274,7 +33274,7 @@
         <v>155.5732105601973</v>
       </c>
       <c r="N30" t="n">
-        <v>159.69077052119</v>
+        <v>159.6907705211899</v>
       </c>
       <c r="O30" t="n">
         <v>146.0858569025277</v>
@@ -33283,7 +33283,7 @@
         <v>117.2467793209256</v>
       </c>
       <c r="Q30" t="n">
-        <v>78.37636697496944</v>
+        <v>78.37636697496943</v>
       </c>
       <c r="R30" t="n">
         <v>38.12176508032118</v>
@@ -33295,7 +33295,7 @@
         <v>2.474844737836616</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04039463663498289</v>
+        <v>0.04039463663498288</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,46 +33335,46 @@
         <v>0.5147556974468854</v>
       </c>
       <c r="H31" t="n">
-        <v>4.576646110027767</v>
+        <v>4.576646110027766</v>
       </c>
       <c r="I31" t="n">
-        <v>15.48010770140271</v>
+        <v>15.4801077014027</v>
       </c>
       <c r="J31" t="n">
         <v>36.3932278094948</v>
       </c>
       <c r="K31" t="n">
-        <v>59.80525284882905</v>
+        <v>59.80525284882903</v>
       </c>
       <c r="L31" t="n">
-        <v>76.53013341860333</v>
+        <v>76.53013341860331</v>
       </c>
       <c r="M31" t="n">
-        <v>80.69029537342405</v>
+        <v>80.69029537342404</v>
       </c>
       <c r="N31" t="n">
-        <v>78.77166050112208</v>
+        <v>78.77166050112207</v>
       </c>
       <c r="O31" t="n">
-        <v>72.75837803549253</v>
+        <v>72.75837803549251</v>
       </c>
       <c r="P31" t="n">
-        <v>62.25736180757602</v>
+        <v>62.257361807576</v>
       </c>
       <c r="Q31" t="n">
-        <v>43.10377026530239</v>
+        <v>43.10377026530238</v>
       </c>
       <c r="R31" t="n">
         <v>23.14528799611177</v>
       </c>
       <c r="S31" t="n">
-        <v>8.970787927324356</v>
+        <v>8.970787927324354</v>
       </c>
       <c r="T31" t="n">
-        <v>2.199410707273056</v>
+        <v>2.199410707273055</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02807758349710288</v>
+        <v>0.02807758349710287</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33417,10 +33417,10 @@
         <v>11.75244400091924</v>
       </c>
       <c r="I32" t="n">
-        <v>44.24128864596015</v>
+        <v>44.24128864596014</v>
       </c>
       <c r="J32" t="n">
-        <v>97.3976803635318</v>
+        <v>97.39768036353179</v>
       </c>
       <c r="K32" t="n">
         <v>145.9738751209014</v>
@@ -33429,10 +33429,10 @@
         <v>181.0934999804774</v>
       </c>
       <c r="M32" t="n">
-        <v>201.5014117101342</v>
+        <v>201.5014117101341</v>
       </c>
       <c r="N32" t="n">
-        <v>204.7619152148443</v>
+        <v>204.7619152148442</v>
       </c>
       <c r="O32" t="n">
         <v>193.3508701730631</v>
@@ -33444,16 +33444,16 @@
         <v>123.9235188189204</v>
       </c>
       <c r="R32" t="n">
-        <v>72.08538610743257</v>
+        <v>72.08538610743256</v>
       </c>
       <c r="S32" t="n">
-        <v>26.15001271045502</v>
+        <v>26.15001271045501</v>
       </c>
       <c r="T32" t="n">
-        <v>5.023441827318345</v>
+        <v>5.023441827318344</v>
       </c>
       <c r="U32" t="n">
-        <v>0.09180476212118041</v>
+        <v>0.0918047621211804</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6139984768517397</v>
+        <v>0.6139984768517396</v>
       </c>
       <c r="H33" t="n">
-        <v>5.929932658015487</v>
+        <v>5.929932658015486</v>
       </c>
       <c r="I33" t="n">
         <v>21.13985983897437</v>
       </c>
       <c r="J33" t="n">
-        <v>58.00939118361108</v>
+        <v>58.00939118361106</v>
       </c>
       <c r="K33" t="n">
-        <v>99.14728913267763</v>
+        <v>99.14728913267761</v>
       </c>
       <c r="L33" t="n">
         <v>133.3157657743218</v>
@@ -33511,7 +33511,7 @@
         <v>155.5732105601973</v>
       </c>
       <c r="N33" t="n">
-        <v>159.69077052119</v>
+        <v>159.6907705211899</v>
       </c>
       <c r="O33" t="n">
         <v>146.0858569025277</v>
@@ -33520,7 +33520,7 @@
         <v>117.2467793209256</v>
       </c>
       <c r="Q33" t="n">
-        <v>78.37636697496944</v>
+        <v>78.37636697496943</v>
       </c>
       <c r="R33" t="n">
         <v>38.12176508032118</v>
@@ -33532,7 +33532,7 @@
         <v>2.474844737836616</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04039463663498289</v>
+        <v>0.04039463663498288</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,46 +33572,46 @@
         <v>0.5147556974468854</v>
       </c>
       <c r="H34" t="n">
-        <v>4.576646110027767</v>
+        <v>4.576646110027766</v>
       </c>
       <c r="I34" t="n">
-        <v>15.48010770140271</v>
+        <v>15.4801077014027</v>
       </c>
       <c r="J34" t="n">
         <v>36.3932278094948</v>
       </c>
       <c r="K34" t="n">
-        <v>59.80525284882905</v>
+        <v>59.80525284882903</v>
       </c>
       <c r="L34" t="n">
-        <v>76.53013341860333</v>
+        <v>76.53013341860331</v>
       </c>
       <c r="M34" t="n">
-        <v>80.69029537342405</v>
+        <v>80.69029537342404</v>
       </c>
       <c r="N34" t="n">
-        <v>78.77166050112208</v>
+        <v>78.77166050112207</v>
       </c>
       <c r="O34" t="n">
-        <v>72.75837803549253</v>
+        <v>72.75837803549251</v>
       </c>
       <c r="P34" t="n">
-        <v>62.25736180757602</v>
+        <v>62.257361807576</v>
       </c>
       <c r="Q34" t="n">
-        <v>43.10377026530239</v>
+        <v>43.10377026530238</v>
       </c>
       <c r="R34" t="n">
         <v>23.14528799611177</v>
       </c>
       <c r="S34" t="n">
-        <v>8.970787927324356</v>
+        <v>8.970787927324354</v>
       </c>
       <c r="T34" t="n">
-        <v>2.199410707273056</v>
+        <v>2.199410707273055</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02807758349710288</v>
+        <v>0.02807758349710287</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33654,10 +33654,10 @@
         <v>11.75244400091924</v>
       </c>
       <c r="I35" t="n">
-        <v>44.24128864596015</v>
+        <v>44.24128864596014</v>
       </c>
       <c r="J35" t="n">
-        <v>97.3976803635318</v>
+        <v>97.39768036353179</v>
       </c>
       <c r="K35" t="n">
         <v>145.9738751209014</v>
@@ -33666,10 +33666,10 @@
         <v>181.0934999804774</v>
       </c>
       <c r="M35" t="n">
-        <v>201.5014117101342</v>
+        <v>201.5014117101341</v>
       </c>
       <c r="N35" t="n">
-        <v>204.7619152148443</v>
+        <v>204.7619152148442</v>
       </c>
       <c r="O35" t="n">
         <v>193.3508701730631</v>
@@ -33681,16 +33681,16 @@
         <v>123.9235188189204</v>
       </c>
       <c r="R35" t="n">
-        <v>72.08538610743257</v>
+        <v>72.08538610743256</v>
       </c>
       <c r="S35" t="n">
-        <v>26.15001271045502</v>
+        <v>26.15001271045501</v>
       </c>
       <c r="T35" t="n">
-        <v>5.023441827318345</v>
+        <v>5.023441827318344</v>
       </c>
       <c r="U35" t="n">
-        <v>0.09180476212118041</v>
+        <v>0.0918047621211804</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6139984768517397</v>
+        <v>0.6139984768517396</v>
       </c>
       <c r="H36" t="n">
-        <v>5.929932658015487</v>
+        <v>5.929932658015486</v>
       </c>
       <c r="I36" t="n">
         <v>21.13985983897437</v>
       </c>
       <c r="J36" t="n">
-        <v>58.00939118361108</v>
+        <v>58.00939118361106</v>
       </c>
       <c r="K36" t="n">
-        <v>99.14728913267763</v>
+        <v>99.14728913267761</v>
       </c>
       <c r="L36" t="n">
         <v>133.3157657743218</v>
@@ -33748,7 +33748,7 @@
         <v>155.5732105601973</v>
       </c>
       <c r="N36" t="n">
-        <v>159.69077052119</v>
+        <v>159.6907705211899</v>
       </c>
       <c r="O36" t="n">
         <v>146.0858569025277</v>
@@ -33757,7 +33757,7 @@
         <v>117.2467793209256</v>
       </c>
       <c r="Q36" t="n">
-        <v>78.37636697496944</v>
+        <v>78.37636697496943</v>
       </c>
       <c r="R36" t="n">
         <v>38.12176508032118</v>
@@ -33769,7 +33769,7 @@
         <v>2.474844737836616</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04039463663498289</v>
+        <v>0.04039463663498288</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,46 +33809,46 @@
         <v>0.5147556974468854</v>
       </c>
       <c r="H37" t="n">
-        <v>4.576646110027767</v>
+        <v>4.576646110027766</v>
       </c>
       <c r="I37" t="n">
-        <v>15.48010770140271</v>
+        <v>15.4801077014027</v>
       </c>
       <c r="J37" t="n">
         <v>36.3932278094948</v>
       </c>
       <c r="K37" t="n">
-        <v>59.80525284882905</v>
+        <v>59.80525284882903</v>
       </c>
       <c r="L37" t="n">
-        <v>76.53013341860333</v>
+        <v>76.53013341860331</v>
       </c>
       <c r="M37" t="n">
-        <v>80.69029537342405</v>
+        <v>80.69029537342404</v>
       </c>
       <c r="N37" t="n">
-        <v>78.77166050112208</v>
+        <v>78.77166050112207</v>
       </c>
       <c r="O37" t="n">
-        <v>72.75837803549253</v>
+        <v>72.75837803549251</v>
       </c>
       <c r="P37" t="n">
-        <v>62.25736180757602</v>
+        <v>62.257361807576</v>
       </c>
       <c r="Q37" t="n">
-        <v>43.10377026530239</v>
+        <v>43.10377026530238</v>
       </c>
       <c r="R37" t="n">
         <v>23.14528799611177</v>
       </c>
       <c r="S37" t="n">
-        <v>8.970787927324356</v>
+        <v>8.970787927324354</v>
       </c>
       <c r="T37" t="n">
-        <v>2.199410707273056</v>
+        <v>2.199410707273055</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02807758349710288</v>
+        <v>0.02807758349710287</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33891,10 +33891,10 @@
         <v>11.75244400091924</v>
       </c>
       <c r="I38" t="n">
-        <v>44.24128864596015</v>
+        <v>44.24128864596014</v>
       </c>
       <c r="J38" t="n">
-        <v>97.3976803635318</v>
+        <v>97.39768036353179</v>
       </c>
       <c r="K38" t="n">
         <v>145.9738751209014</v>
@@ -33903,10 +33903,10 @@
         <v>181.0934999804774</v>
       </c>
       <c r="M38" t="n">
-        <v>201.5014117101342</v>
+        <v>201.5014117101341</v>
       </c>
       <c r="N38" t="n">
-        <v>204.7619152148443</v>
+        <v>204.7619152148442</v>
       </c>
       <c r="O38" t="n">
         <v>193.3508701730631</v>
@@ -33918,16 +33918,16 @@
         <v>123.9235188189204</v>
       </c>
       <c r="R38" t="n">
-        <v>72.08538610743257</v>
+        <v>72.08538610743256</v>
       </c>
       <c r="S38" t="n">
-        <v>26.15001271045502</v>
+        <v>26.15001271045501</v>
       </c>
       <c r="T38" t="n">
-        <v>5.023441827318345</v>
+        <v>5.023441827318344</v>
       </c>
       <c r="U38" t="n">
-        <v>0.09180476212118041</v>
+        <v>0.0918047621211804</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6139984768517397</v>
+        <v>0.6139984768517396</v>
       </c>
       <c r="H39" t="n">
-        <v>5.929932658015487</v>
+        <v>5.929932658015486</v>
       </c>
       <c r="I39" t="n">
         <v>21.13985983897437</v>
       </c>
       <c r="J39" t="n">
-        <v>58.00939118361108</v>
+        <v>58.00939118361106</v>
       </c>
       <c r="K39" t="n">
-        <v>99.14728913267763</v>
+        <v>99.14728913267761</v>
       </c>
       <c r="L39" t="n">
         <v>133.3157657743218</v>
@@ -33985,7 +33985,7 @@
         <v>155.5732105601973</v>
       </c>
       <c r="N39" t="n">
-        <v>159.69077052119</v>
+        <v>159.6907705211899</v>
       </c>
       <c r="O39" t="n">
         <v>146.0858569025277</v>
@@ -33994,7 +33994,7 @@
         <v>117.2467793209256</v>
       </c>
       <c r="Q39" t="n">
-        <v>78.37636697496944</v>
+        <v>78.37636697496943</v>
       </c>
       <c r="R39" t="n">
         <v>38.12176508032118</v>
@@ -34006,7 +34006,7 @@
         <v>2.474844737836616</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04039463663498289</v>
+        <v>0.04039463663498288</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,46 +34046,46 @@
         <v>0.5147556974468854</v>
       </c>
       <c r="H40" t="n">
-        <v>4.576646110027767</v>
+        <v>4.576646110027766</v>
       </c>
       <c r="I40" t="n">
-        <v>15.48010770140271</v>
+        <v>15.4801077014027</v>
       </c>
       <c r="J40" t="n">
         <v>36.3932278094948</v>
       </c>
       <c r="K40" t="n">
-        <v>59.80525284882905</v>
+        <v>59.80525284882903</v>
       </c>
       <c r="L40" t="n">
-        <v>76.53013341860333</v>
+        <v>76.53013341860331</v>
       </c>
       <c r="M40" t="n">
-        <v>80.69029537342405</v>
+        <v>80.69029537342404</v>
       </c>
       <c r="N40" t="n">
-        <v>78.77166050112208</v>
+        <v>78.77166050112207</v>
       </c>
       <c r="O40" t="n">
-        <v>72.75837803549253</v>
+        <v>72.75837803549251</v>
       </c>
       <c r="P40" t="n">
-        <v>62.25736180757602</v>
+        <v>62.257361807576</v>
       </c>
       <c r="Q40" t="n">
-        <v>43.10377026530239</v>
+        <v>43.10377026530238</v>
       </c>
       <c r="R40" t="n">
         <v>23.14528799611177</v>
       </c>
       <c r="S40" t="n">
-        <v>8.970787927324356</v>
+        <v>8.970787927324354</v>
       </c>
       <c r="T40" t="n">
-        <v>2.199410707273056</v>
+        <v>2.199410707273055</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02807758349710288</v>
+        <v>0.02807758349710287</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34128,43 +34128,43 @@
         <v>11.75244400091924</v>
       </c>
       <c r="I41" t="n">
-        <v>44.24128864596015</v>
+        <v>44.24128864596013</v>
       </c>
       <c r="J41" t="n">
-        <v>97.3976803635318</v>
+        <v>97.39768036353178</v>
       </c>
       <c r="K41" t="n">
         <v>145.9738751209014</v>
       </c>
       <c r="L41" t="n">
-        <v>181.0934999804774</v>
+        <v>181.0934999804773</v>
       </c>
       <c r="M41" t="n">
-        <v>201.5014117101342</v>
+        <v>201.5014117101341</v>
       </c>
       <c r="N41" t="n">
-        <v>204.7619152148443</v>
+        <v>204.7619152148442</v>
       </c>
       <c r="O41" t="n">
         <v>193.3508701730631</v>
       </c>
       <c r="P41" t="n">
-        <v>165.0204943622301</v>
+        <v>165.02049436223</v>
       </c>
       <c r="Q41" t="n">
-        <v>123.9235188189204</v>
+        <v>123.9235188189203</v>
       </c>
       <c r="R41" t="n">
-        <v>72.08538610743257</v>
+        <v>72.08538610743254</v>
       </c>
       <c r="S41" t="n">
-        <v>26.15001271045502</v>
+        <v>26.15001271045501</v>
       </c>
       <c r="T41" t="n">
-        <v>5.023441827318345</v>
+        <v>5.023441827318342</v>
       </c>
       <c r="U41" t="n">
-        <v>0.09180476212118041</v>
+        <v>0.09180476212118037</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.6139984768517397</v>
+        <v>0.6139984768517394</v>
       </c>
       <c r="H42" t="n">
-        <v>5.929932658015487</v>
+        <v>5.929932658015484</v>
       </c>
       <c r="I42" t="n">
-        <v>21.13985983897437</v>
+        <v>21.13985983897436</v>
       </c>
       <c r="J42" t="n">
-        <v>58.00939118361108</v>
+        <v>58.00939118361106</v>
       </c>
       <c r="K42" t="n">
-        <v>99.14728913267763</v>
+        <v>99.14728913267759</v>
       </c>
       <c r="L42" t="n">
         <v>133.3157657743218</v>
@@ -34222,7 +34222,7 @@
         <v>155.5732105601973</v>
       </c>
       <c r="N42" t="n">
-        <v>159.69077052119</v>
+        <v>159.6907705211899</v>
       </c>
       <c r="O42" t="n">
         <v>146.0858569025277</v>
@@ -34231,19 +34231,19 @@
         <v>117.2467793209256</v>
       </c>
       <c r="Q42" t="n">
-        <v>78.37636697496944</v>
+        <v>78.37636697496941</v>
       </c>
       <c r="R42" t="n">
-        <v>38.12176508032118</v>
+        <v>38.12176508032117</v>
       </c>
       <c r="S42" t="n">
         <v>11.40475240994349</v>
       </c>
       <c r="T42" t="n">
-        <v>2.474844737836616</v>
+        <v>2.474844737836615</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04039463663498289</v>
+        <v>0.04039463663498287</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5147556974468854</v>
+        <v>0.5147556974468853</v>
       </c>
       <c r="H43" t="n">
-        <v>4.576646110027767</v>
+        <v>4.576646110027765</v>
       </c>
       <c r="I43" t="n">
-        <v>15.48010770140271</v>
+        <v>15.4801077014027</v>
       </c>
       <c r="J43" t="n">
-        <v>36.3932278094948</v>
+        <v>36.39322780949479</v>
       </c>
       <c r="K43" t="n">
-        <v>59.80525284882905</v>
+        <v>59.80525284882902</v>
       </c>
       <c r="L43" t="n">
-        <v>76.53013341860333</v>
+        <v>76.5301334186033</v>
       </c>
       <c r="M43" t="n">
-        <v>80.69029537342405</v>
+        <v>80.69029537342402</v>
       </c>
       <c r="N43" t="n">
-        <v>78.77166050112208</v>
+        <v>78.77166050112206</v>
       </c>
       <c r="O43" t="n">
-        <v>72.75837803549253</v>
+        <v>72.7583780354925</v>
       </c>
       <c r="P43" t="n">
-        <v>62.25736180757602</v>
+        <v>62.25736180757599</v>
       </c>
       <c r="Q43" t="n">
-        <v>43.10377026530239</v>
+        <v>43.10377026530237</v>
       </c>
       <c r="R43" t="n">
-        <v>23.14528799611177</v>
+        <v>23.14528799611176</v>
       </c>
       <c r="S43" t="n">
-        <v>8.970787927324356</v>
+        <v>8.970787927324352</v>
       </c>
       <c r="T43" t="n">
-        <v>2.199410707273056</v>
+        <v>2.199410707273055</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02807758349710288</v>
+        <v>0.02807758349710287</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,43 +34365,43 @@
         <v>11.75244400091924</v>
       </c>
       <c r="I44" t="n">
-        <v>44.24128864596015</v>
+        <v>44.24128864596013</v>
       </c>
       <c r="J44" t="n">
-        <v>97.3976803635318</v>
+        <v>97.39768036353178</v>
       </c>
       <c r="K44" t="n">
         <v>145.9738751209014</v>
       </c>
       <c r="L44" t="n">
-        <v>181.0934999804774</v>
+        <v>181.0934999804773</v>
       </c>
       <c r="M44" t="n">
-        <v>201.5014117101342</v>
+        <v>201.5014117101341</v>
       </c>
       <c r="N44" t="n">
-        <v>204.7619152148443</v>
+        <v>204.7619152148442</v>
       </c>
       <c r="O44" t="n">
         <v>193.3508701730631</v>
       </c>
       <c r="P44" t="n">
-        <v>165.0204943622301</v>
+        <v>165.02049436223</v>
       </c>
       <c r="Q44" t="n">
-        <v>123.9235188189204</v>
+        <v>123.9235188189203</v>
       </c>
       <c r="R44" t="n">
-        <v>72.08538610743257</v>
+        <v>72.08538610743254</v>
       </c>
       <c r="S44" t="n">
-        <v>26.15001271045502</v>
+        <v>26.15001271045501</v>
       </c>
       <c r="T44" t="n">
-        <v>5.023441827318345</v>
+        <v>5.023441827318342</v>
       </c>
       <c r="U44" t="n">
-        <v>0.09180476212118041</v>
+        <v>0.09180476212118037</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.6139984768517397</v>
+        <v>0.6139984768517394</v>
       </c>
       <c r="H45" t="n">
-        <v>5.929932658015487</v>
+        <v>5.929932658015484</v>
       </c>
       <c r="I45" t="n">
-        <v>21.13985983897437</v>
+        <v>21.13985983897436</v>
       </c>
       <c r="J45" t="n">
-        <v>58.00939118361108</v>
+        <v>58.00939118361106</v>
       </c>
       <c r="K45" t="n">
-        <v>99.14728913267763</v>
+        <v>99.14728913267759</v>
       </c>
       <c r="L45" t="n">
         <v>133.3157657743218</v>
@@ -34459,7 +34459,7 @@
         <v>155.5732105601973</v>
       </c>
       <c r="N45" t="n">
-        <v>159.69077052119</v>
+        <v>159.6907705211899</v>
       </c>
       <c r="O45" t="n">
         <v>146.0858569025277</v>
@@ -34468,19 +34468,19 @@
         <v>117.2467793209256</v>
       </c>
       <c r="Q45" t="n">
-        <v>78.37636697496944</v>
+        <v>78.37636697496941</v>
       </c>
       <c r="R45" t="n">
-        <v>38.12176508032118</v>
+        <v>38.12176508032117</v>
       </c>
       <c r="S45" t="n">
         <v>11.40475240994349</v>
       </c>
       <c r="T45" t="n">
-        <v>2.474844737836616</v>
+        <v>2.474844737836615</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04039463663498289</v>
+        <v>0.04039463663498287</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5147556974468854</v>
+        <v>0.5147556974468853</v>
       </c>
       <c r="H46" t="n">
-        <v>4.576646110027767</v>
+        <v>4.576646110027765</v>
       </c>
       <c r="I46" t="n">
-        <v>15.48010770140271</v>
+        <v>15.4801077014027</v>
       </c>
       <c r="J46" t="n">
-        <v>36.3932278094948</v>
+        <v>36.39322780949479</v>
       </c>
       <c r="K46" t="n">
-        <v>59.80525284882905</v>
+        <v>59.80525284882902</v>
       </c>
       <c r="L46" t="n">
-        <v>76.53013341860333</v>
+        <v>76.5301334186033</v>
       </c>
       <c r="M46" t="n">
-        <v>80.69029537342405</v>
+        <v>80.69029537342402</v>
       </c>
       <c r="N46" t="n">
-        <v>78.77166050112208</v>
+        <v>78.77166050112206</v>
       </c>
       <c r="O46" t="n">
-        <v>72.75837803549253</v>
+        <v>72.7583780354925</v>
       </c>
       <c r="P46" t="n">
-        <v>62.25736180757602</v>
+        <v>62.25736180757599</v>
       </c>
       <c r="Q46" t="n">
-        <v>43.10377026530239</v>
+        <v>43.10377026530237</v>
       </c>
       <c r="R46" t="n">
-        <v>23.14528799611177</v>
+        <v>23.14528799611176</v>
       </c>
       <c r="S46" t="n">
-        <v>8.970787927324356</v>
+        <v>8.970787927324352</v>
       </c>
       <c r="T46" t="n">
-        <v>2.199410707273056</v>
+        <v>2.199410707273055</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02807758349710288</v>
+        <v>0.02807758349710287</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,16 +34777,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>231.8086389496855</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="L3" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M3" t="n">
-        <v>40.69581689574456</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N3" t="n">
         <v>516.4299455789112</v>
@@ -34798,7 +34798,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.3652826117113</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>231.8086389496855</v>
+        <v>212.9515651312839</v>
       </c>
       <c r="L6" t="n">
-        <v>369.5170153233491</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N6" t="n">
-        <v>67.19308216129573</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O6" t="n">
         <v>396.1615664486372</v>
@@ -35257,7 +35257,7 @@
         <v>231.8086389496855</v>
       </c>
       <c r="L9" t="n">
-        <v>140.5082087933099</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>489.93268031336</v>
@@ -35269,10 +35269,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P9" t="n">
-        <v>305.147393207775</v>
+        <v>286.2903193893735</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35503,10 +35503,10 @@
         <v>569.5810543320048</v>
       </c>
       <c r="O12" t="n">
-        <v>382.8480484128796</v>
+        <v>444.7844470457648</v>
       </c>
       <c r="P12" t="n">
-        <v>344.1715415558448</v>
+        <v>282.2351429229594</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35585,7 +35585,7 @@
         <v>123.6749599762021</v>
       </c>
       <c r="P13" t="n">
-        <v>84.32612612324624</v>
+        <v>84.32612612324623</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>80.17048660913161</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>264.8085946144125</v>
       </c>
       <c r="L15" t="n">
-        <v>413.8895281620462</v>
+        <v>351.9531295291608</v>
       </c>
       <c r="M15" t="n">
-        <v>214.1545323168998</v>
+        <v>541.7133098798994</v>
       </c>
       <c r="N15" t="n">
         <v>569.5810543320048</v>
@@ -35746,7 +35746,7 @@
         <v>344.1715415558448</v>
       </c>
       <c r="Q15" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35974,10 +35974,10 @@
         <v>541.7133098798994</v>
       </c>
       <c r="N18" t="n">
-        <v>569.5810543320048</v>
+        <v>242.0222767690054</v>
       </c>
       <c r="O18" t="n">
-        <v>117.2256694827652</v>
+        <v>444.7844470457648</v>
       </c>
       <c r="P18" t="n">
         <v>344.1715415558448</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>80.17048660913161</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.8085946144125</v>
@@ -36208,19 +36208,19 @@
         <v>413.8895281620462</v>
       </c>
       <c r="M21" t="n">
-        <v>541.7133098798994</v>
+        <v>479.7769112470135</v>
       </c>
       <c r="N21" t="n">
         <v>569.5810543320048</v>
       </c>
       <c r="O21" t="n">
-        <v>117.2256694827652</v>
+        <v>444.7844470457648</v>
       </c>
       <c r="P21" t="n">
         <v>344.1715415558448</v>
       </c>
       <c r="Q21" t="n">
-        <v>185.4518923209819</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36363,16 +36363,16 @@
         <v>388.5399074893688</v>
       </c>
       <c r="L23" t="n">
-        <v>532.4928667329484</v>
+        <v>532.4928667329483</v>
       </c>
       <c r="M23" t="n">
-        <v>598.7126907536574</v>
+        <v>598.7126907536573</v>
       </c>
       <c r="N23" t="n">
         <v>586.9148027781935</v>
       </c>
       <c r="O23" t="n">
-        <v>501.4363090345116</v>
+        <v>501.4363090345115</v>
       </c>
       <c r="P23" t="n">
         <v>395.482005934001</v>
@@ -36439,22 +36439,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>330.9559280823631</v>
+        <v>87.64284235113008</v>
       </c>
       <c r="L24" t="n">
-        <v>20.74033220317403</v>
+        <v>502.8327810976709</v>
       </c>
       <c r="M24" t="n">
-        <v>470.2836548049023</v>
+        <v>645.5058908735573</v>
       </c>
       <c r="N24" t="n">
         <v>676.1207161001012</v>
       </c>
       <c r="O24" t="n">
-        <v>542.247423351165</v>
+        <v>542.2474233511649</v>
       </c>
       <c r="P24" t="n">
-        <v>422.3941725287006</v>
+        <v>8.392573296782274</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36518,10 +36518,10 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>93.74887683331735</v>
+        <v>93.74887683331733</v>
       </c>
       <c r="L25" t="n">
-        <v>178.153445944118</v>
+        <v>178.1534459441179</v>
       </c>
       <c r="M25" t="n">
         <v>199.8756550982743</v>
@@ -36536,7 +36536,7 @@
         <v>125.861890825897</v>
       </c>
       <c r="Q25" t="n">
-        <v>4.951802332454534</v>
+        <v>4.951802332454527</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,16 +36600,16 @@
         <v>388.5399074893688</v>
       </c>
       <c r="L26" t="n">
-        <v>532.4928667329484</v>
+        <v>532.4928667329483</v>
       </c>
       <c r="M26" t="n">
-        <v>598.7126907536574</v>
+        <v>598.7126907536573</v>
       </c>
       <c r="N26" t="n">
         <v>586.9148027781935</v>
       </c>
       <c r="O26" t="n">
-        <v>501.4363090345116</v>
+        <v>501.4363090345115</v>
       </c>
       <c r="P26" t="n">
         <v>395.482005934001</v>
@@ -36676,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>330.9559280823631</v>
+        <v>185.6622581789595</v>
       </c>
       <c r="L27" t="n">
-        <v>20.74033220317403</v>
+        <v>502.8327810976709</v>
       </c>
       <c r="M27" t="n">
-        <v>645.5058908735574</v>
+        <v>645.5058908735573</v>
       </c>
       <c r="N27" t="n">
-        <v>263.156830444765</v>
+        <v>676.1207161001012</v>
       </c>
       <c r="O27" t="n">
-        <v>542.247423351165</v>
+        <v>30.22640829141659</v>
       </c>
       <c r="P27" t="n">
         <v>422.3941725287006</v>
       </c>
       <c r="Q27" t="n">
-        <v>237.7416495866808</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,10 +36755,10 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>93.74887683331735</v>
+        <v>93.74887683331733</v>
       </c>
       <c r="L28" t="n">
-        <v>178.153445944118</v>
+        <v>178.1534459441179</v>
       </c>
       <c r="M28" t="n">
         <v>199.8756550982743</v>
@@ -36773,7 +36773,7 @@
         <v>125.861890825897</v>
       </c>
       <c r="Q28" t="n">
-        <v>4.951802332454534</v>
+        <v>4.951802332454527</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,16 +36837,16 @@
         <v>388.5399074893688</v>
       </c>
       <c r="L29" t="n">
-        <v>532.4928667329484</v>
+        <v>532.4928667329483</v>
       </c>
       <c r="M29" t="n">
-        <v>598.7126907536574</v>
+        <v>598.7126907536573</v>
       </c>
       <c r="N29" t="n">
         <v>586.9148027781935</v>
       </c>
       <c r="O29" t="n">
-        <v>501.4363090345116</v>
+        <v>501.4363090345115</v>
       </c>
       <c r="P29" t="n">
         <v>395.482005934001</v>
@@ -36919,13 +36919,13 @@
         <v>502.8327810976709</v>
       </c>
       <c r="M30" t="n">
-        <v>40.08930799855744</v>
+        <v>645.5058908735573</v>
       </c>
       <c r="N30" t="n">
-        <v>267.608798965792</v>
+        <v>52.97562945348162</v>
       </c>
       <c r="O30" t="n">
-        <v>542.247423351165</v>
+        <v>151.4640099884762</v>
       </c>
       <c r="P30" t="n">
         <v>422.3941725287006</v>
@@ -36992,10 +36992,10 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>93.74887683331735</v>
+        <v>93.74887683331733</v>
       </c>
       <c r="L31" t="n">
-        <v>178.153445944118</v>
+        <v>178.1534459441179</v>
       </c>
       <c r="M31" t="n">
         <v>199.8756550982743</v>
@@ -37010,7 +37010,7 @@
         <v>125.861890825897</v>
       </c>
       <c r="Q31" t="n">
-        <v>4.951802332454534</v>
+        <v>4.951802332454527</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37074,16 +37074,16 @@
         <v>388.5399074893688</v>
       </c>
       <c r="L32" t="n">
-        <v>532.4928667329484</v>
+        <v>532.4928667329483</v>
       </c>
       <c r="M32" t="n">
-        <v>598.7126907536574</v>
+        <v>598.7126907536573</v>
       </c>
       <c r="N32" t="n">
         <v>586.9148027781935</v>
       </c>
       <c r="O32" t="n">
-        <v>501.4363090345116</v>
+        <v>501.4363090345115</v>
       </c>
       <c r="P32" t="n">
         <v>395.482005934001</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>330.9559280823631</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>502.8327810976709</v>
+        <v>176.4740242168824</v>
       </c>
       <c r="M33" t="n">
-        <v>373.5946429703438</v>
+        <v>645.5058908735573</v>
       </c>
       <c r="N33" t="n">
-        <v>52.97562945348164</v>
+        <v>676.1207161001012</v>
       </c>
       <c r="O33" t="n">
-        <v>542.247423351165</v>
+        <v>542.2474233511649</v>
       </c>
       <c r="P33" t="n">
         <v>422.3941725287006</v>
       </c>
       <c r="Q33" t="n">
-        <v>237.7416495866808</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,10 +37229,10 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>93.74887683331735</v>
+        <v>93.74887683331733</v>
       </c>
       <c r="L34" t="n">
-        <v>178.153445944118</v>
+        <v>178.1534459441179</v>
       </c>
       <c r="M34" t="n">
         <v>199.8756550982743</v>
@@ -37247,7 +37247,7 @@
         <v>125.861890825897</v>
       </c>
       <c r="Q34" t="n">
-        <v>4.951802332454534</v>
+        <v>4.951802332454527</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37311,16 +37311,16 @@
         <v>388.5399074893688</v>
       </c>
       <c r="L35" t="n">
-        <v>532.4928667329484</v>
+        <v>532.4928667329483</v>
       </c>
       <c r="M35" t="n">
-        <v>598.7126907536574</v>
+        <v>598.7126907536573</v>
       </c>
       <c r="N35" t="n">
         <v>586.9148027781935</v>
       </c>
       <c r="O35" t="n">
-        <v>501.4363090345116</v>
+        <v>501.4363090345115</v>
       </c>
       <c r="P35" t="n">
         <v>395.482005934001</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>118.8721654594759</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>330.9559280823631</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>20.74033220317403</v>
+        <v>20.74033220317401</v>
       </c>
       <c r="M36" t="n">
-        <v>645.5058908735574</v>
+        <v>563.497933300585</v>
       </c>
       <c r="N36" t="n">
         <v>676.1207161001012</v>
       </c>
       <c r="O36" t="n">
-        <v>542.247423351165</v>
+        <v>542.2474233511649</v>
       </c>
       <c r="P36" t="n">
-        <v>8.392573296782302</v>
+        <v>422.3941725287006</v>
       </c>
       <c r="Q36" t="n">
-        <v>119.907197703787</v>
+        <v>237.7416495866808</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,10 +37466,10 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>93.74887683331735</v>
+        <v>93.74887683331733</v>
       </c>
       <c r="L37" t="n">
-        <v>178.153445944118</v>
+        <v>178.1534459441179</v>
       </c>
       <c r="M37" t="n">
         <v>199.8756550982743</v>
@@ -37484,7 +37484,7 @@
         <v>125.861890825897</v>
       </c>
       <c r="Q37" t="n">
-        <v>4.951802332454534</v>
+        <v>4.951802332454527</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,16 +37548,16 @@
         <v>388.5399074893688</v>
       </c>
       <c r="L38" t="n">
-        <v>532.4928667329484</v>
+        <v>532.4928667329483</v>
       </c>
       <c r="M38" t="n">
-        <v>598.7126907536574</v>
+        <v>598.7126907536573</v>
       </c>
       <c r="N38" t="n">
         <v>586.9148027781935</v>
       </c>
       <c r="O38" t="n">
-        <v>501.4363090345116</v>
+        <v>501.4363090345115</v>
       </c>
       <c r="P38" t="n">
         <v>395.482005934001</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>118.8721654594759</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>330.9559280823631</v>
+        <v>87.64284235113008</v>
       </c>
       <c r="L39" t="n">
         <v>502.8327810976709</v>
       </c>
       <c r="M39" t="n">
-        <v>645.5058908735574</v>
+        <v>645.5058908735573</v>
       </c>
       <c r="N39" t="n">
-        <v>76.19381532271029</v>
+        <v>676.1207161001012</v>
       </c>
       <c r="O39" t="n">
-        <v>542.247423351165</v>
+        <v>542.2474233511649</v>
       </c>
       <c r="P39" t="n">
-        <v>8.392573296782302</v>
+        <v>8.392573296782274</v>
       </c>
       <c r="Q39" t="n">
-        <v>237.7416495866808</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,10 +37703,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>93.74887683331735</v>
+        <v>93.74887683331733</v>
       </c>
       <c r="L40" t="n">
-        <v>178.153445944118</v>
+        <v>178.1534459441179</v>
       </c>
       <c r="M40" t="n">
         <v>199.8756550982743</v>
@@ -37721,7 +37721,7 @@
         <v>125.861890825897</v>
       </c>
       <c r="Q40" t="n">
-        <v>4.951802332454534</v>
+        <v>4.951802332454527</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,16 +37785,16 @@
         <v>388.5399074893688</v>
       </c>
       <c r="L41" t="n">
-        <v>532.4928667329484</v>
+        <v>532.4928667329483</v>
       </c>
       <c r="M41" t="n">
-        <v>598.7126907536574</v>
+        <v>598.7126907536573</v>
       </c>
       <c r="N41" t="n">
         <v>586.9148027781935</v>
       </c>
       <c r="O41" t="n">
-        <v>501.4363090345116</v>
+        <v>501.4363090345115</v>
       </c>
       <c r="P41" t="n">
         <v>395.482005934001</v>
@@ -37864,22 +37864,22 @@
         <v>330.9559280823631</v>
       </c>
       <c r="L42" t="n">
-        <v>20.74033220317403</v>
+        <v>502.8327810976709</v>
       </c>
       <c r="M42" t="n">
-        <v>351.4114893454262</v>
+        <v>645.5058908735573</v>
       </c>
       <c r="N42" t="n">
-        <v>676.1207161001012</v>
+        <v>52.97562945348159</v>
       </c>
       <c r="O42" t="n">
-        <v>542.247423351165</v>
+        <v>151.4640099884765</v>
       </c>
       <c r="P42" t="n">
         <v>422.3941725287006</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>237.7416495866808</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,10 +37940,10 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>93.74887683331735</v>
+        <v>93.74887683331733</v>
       </c>
       <c r="L43" t="n">
-        <v>178.153445944118</v>
+        <v>178.1534459441179</v>
       </c>
       <c r="M43" t="n">
         <v>199.8756550982743</v>
@@ -37958,7 +37958,7 @@
         <v>125.861890825897</v>
       </c>
       <c r="Q43" t="n">
-        <v>4.951802332454534</v>
+        <v>4.95180233245452</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38022,22 +38022,22 @@
         <v>388.5399074893688</v>
       </c>
       <c r="L44" t="n">
-        <v>532.4928667329486</v>
+        <v>532.4928667329483</v>
       </c>
       <c r="M44" t="n">
-        <v>598.7126907536574</v>
+        <v>598.7126907536573</v>
       </c>
       <c r="N44" t="n">
         <v>586.9148027781935</v>
       </c>
       <c r="O44" t="n">
-        <v>501.4363090345116</v>
+        <v>501.4363090345115</v>
       </c>
       <c r="P44" t="n">
         <v>395.482005934001</v>
       </c>
       <c r="Q44" t="n">
-        <v>219.3096336538062</v>
+        <v>219.3096336538061</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>118.8721654594759</v>
       </c>
       <c r="K45" t="n">
-        <v>330.9559280823631</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>20.74033220317403</v>
+        <v>502.8327810976709</v>
       </c>
       <c r="M45" t="n">
-        <v>645.5058908735574</v>
+        <v>645.5058908735573</v>
       </c>
       <c r="N45" t="n">
-        <v>263.156830444765</v>
+        <v>644.8913929917555</v>
       </c>
       <c r="O45" t="n">
-        <v>542.247423351165</v>
+        <v>542.2474233511649</v>
       </c>
       <c r="P45" t="n">
-        <v>422.3941725287006</v>
+        <v>8.39257329678226</v>
       </c>
       <c r="Q45" t="n">
-        <v>237.7416495866808</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,10 +38177,10 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>93.74887683331735</v>
+        <v>93.74887683331733</v>
       </c>
       <c r="L46" t="n">
-        <v>178.153445944118</v>
+        <v>178.1534459441179</v>
       </c>
       <c r="M46" t="n">
         <v>199.8756550982743</v>
@@ -38195,7 +38195,7 @@
         <v>125.861890825897</v>
       </c>
       <c r="Q46" t="n">
-        <v>4.951802332454534</v>
+        <v>4.95180233245452</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
